--- a/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
+++ b/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="flux" sheetId="1" r:id="rId1"/>
@@ -1881,6 +1881,649 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.098731798966651"/>
+          <c:y val="0.157824042981867"/>
+          <c:w val="0.81672146547675"/>
+          <c:h val="0.838817998656817"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>probeBt!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>probeBt!$B$2:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>358.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>358.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>358.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>492.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>562.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>632.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>702.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>772.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>842.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>912.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>982.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1052.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1217.36325795501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1333.06502769859</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1448.76679744217</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1597.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1495.98546037552</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1342.77657175173</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1189.56768312793</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1052.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>982.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>912.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>842.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>772.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>702.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>632.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>562.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>492.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>probeBt!$C$2:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>-1488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1312.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-962.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-787.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-612.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-437.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-262.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-87.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>612.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>787.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>962.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1312.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1604.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1604.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1604.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1604.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1604.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1604.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1604.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1604.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1604.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1521.32301438475</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1383.43501462333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1245.54701486191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-84.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-259.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-434.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-609.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-784.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-959.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1158.48939400218</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1287.04691593949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1415.6044378768</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1602.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1602.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1602.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1602.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1602.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1602.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1602.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1602.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1602.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="796744576"/>
+        <c:axId val="576701089"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="796744576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576701089"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="576701089"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796744576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -2511,6 +3154,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3067,6 +3750,542 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10172">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:noFill/>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3605,7 +4824,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3651,6 +4870,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>240665</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11144250" y="15875"/>
+        <a:ext cx="4057015" cy="5812790"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4699,8 +5948,8 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q45" sqref="J45:Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="20" customHeight="1"/>
@@ -6712,10 +7961,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="19">
-        <v>1559.01185455643</v>
+        <v>1495.98546037552</v>
       </c>
       <c r="C42" s="19">
-        <v>-1054.69308560659</v>
+        <v>-1158.48939400218</v>
       </c>
       <c r="D42" s="20">
         <v>220</v>
@@ -6773,10 +8022,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="19">
-        <v>1559.01185455643</v>
+        <v>1342.77657175173</v>
       </c>
       <c r="C43" s="19">
-        <v>-1054.69308560659</v>
+        <v>-1287.04691593949</v>
       </c>
       <c r="D43" s="20">
         <v>220</v>
@@ -6828,10 +8077,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="19">
-        <v>1559.01185455643</v>
+        <v>1189.56768312793</v>
       </c>
       <c r="C44" s="19">
-        <v>-1054.69308560659</v>
+        <v>-1415.6044378768</v>
       </c>
       <c r="D44" s="20">
         <v>220</v>
@@ -7232,7 +8481,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="26">
-        <v>947.8</v>
+        <v>562.8</v>
       </c>
       <c r="C52" s="26">
         <v>-1602.4</v>
@@ -7346,8 +8595,8 @@
   <sheetPr/>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="20" customHeight="1"/>
@@ -9578,7 +10827,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="26">
-        <v>947.8</v>
+        <v>562.8</v>
       </c>
       <c r="C48" s="26">
         <v>-1602.4</v>

--- a/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
+++ b/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23085" windowHeight="11970" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="flux" sheetId="1" r:id="rId1"/>
@@ -5047,7 +5047,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15048865" y="2608580"/>
+          <a:off x="14577060" y="2608580"/>
           <a:ext cx="6613525" cy="3571875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5080,7 +5080,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16188055" y="6962140"/>
+        <a:off x="15716250" y="6962140"/>
         <a:ext cx="3836670" cy="5398770"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5110,7 +5110,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12536170" y="11430"/>
+        <a:off x="12064365" y="11430"/>
         <a:ext cx="4057015" cy="5812790"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6164,8 +6164,8 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="20" customHeight="1"/>
@@ -6174,7 +6174,7 @@
     <col min="2" max="2" width="9.64166666666667" style="10" customWidth="1"/>
     <col min="3" max="3" width="10.4666666666667" style="10" customWidth="1"/>
     <col min="4" max="4" width="9" style="11"/>
-    <col min="5" max="5" width="28.6916666666667" style="11" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="11" customWidth="1"/>
     <col min="6" max="6" width="9.025" style="11" customWidth="1"/>
     <col min="7" max="7" width="9" style="11"/>
     <col min="8" max="8" width="8.25" style="11" customWidth="1"/>
@@ -8811,8 +8811,8 @@
   <sheetPr/>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="20" customHeight="1"/>

--- a/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
+++ b/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="flux" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="137">
   <si>
     <t>Chns</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>·</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>R/m</t>
@@ -3076,8 +3073,8 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="24.95" customHeight="1"/>
@@ -3127,10 +3124,6 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2"/>
       <c r="J2" s="60"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
@@ -3149,10 +3142,6 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3"/>
       <c r="J3" s="60"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
@@ -3171,10 +3160,6 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4"/>
       <c r="J4" s="60"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
@@ -3193,10 +3178,6 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5"/>
       <c r="J5" s="60"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
@@ -3215,10 +3196,6 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6"/>
       <c r="J6" s="60"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
@@ -3237,10 +3214,6 @@
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7"/>
       <c r="J7" s="60"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
@@ -3259,10 +3232,6 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8"/>
       <c r="J8" s="60"/>
     </row>
     <row r="9" customHeight="1" spans="1:10">
@@ -3281,10 +3250,6 @@
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9"/>
       <c r="J9" s="60"/>
     </row>
     <row r="10" customHeight="1" spans="1:10">
@@ -3303,10 +3268,6 @@
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10"/>
       <c r="J10" s="60"/>
     </row>
     <row r="11" customHeight="1" spans="1:10">
@@ -3325,10 +3286,6 @@
       <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11"/>
       <c r="J11" s="60"/>
     </row>
     <row r="12" customHeight="1" spans="1:10">
@@ -3347,10 +3304,6 @@
       <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12"/>
       <c r="J12" s="60"/>
     </row>
     <row r="13" customHeight="1" spans="1:10">
@@ -3369,10 +3322,6 @@
       <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13"/>
       <c r="J13" s="60"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
@@ -3391,10 +3340,6 @@
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14"/>
       <c r="J14" s="60"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
@@ -3413,10 +3358,6 @@
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15"/>
       <c r="J15" s="60"/>
     </row>
     <row r="16" customHeight="1" spans="1:10">
@@ -3435,10 +3376,6 @@
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16"/>
       <c r="J16" s="60"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
@@ -3457,10 +3394,6 @@
       <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17"/>
       <c r="J17" s="60"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
@@ -3479,10 +3412,6 @@
       <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18"/>
       <c r="J18" s="60"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
@@ -3501,10 +3430,6 @@
       <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19"/>
       <c r="J19" s="60"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
@@ -3523,10 +3448,6 @@
       <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20"/>
       <c r="J20" s="60"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
@@ -3546,10 +3467,6 @@
       <c r="E21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21"/>
       <c r="J21" s="60"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
@@ -3569,10 +3486,6 @@
       <c r="E22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22"/>
       <c r="J22" s="60"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
@@ -3592,10 +3505,6 @@
       <c r="E23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23"/>
       <c r="J23" s="60"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
@@ -3615,10 +3524,6 @@
       <c r="E24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24"/>
       <c r="J24" s="60"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
@@ -3638,10 +3543,6 @@
       <c r="E25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25"/>
       <c r="J25" s="60"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
@@ -3661,10 +3562,6 @@
       <c r="E26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26"/>
       <c r="J26" s="60"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
@@ -3684,10 +3581,6 @@
       <c r="E27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27"/>
       <c r="J27" s="60"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
@@ -3707,10 +3600,6 @@
       <c r="E28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28"/>
       <c r="J28" s="60"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
@@ -3730,10 +3619,6 @@
       <c r="E29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29"/>
       <c r="J29" s="60"/>
     </row>
     <row r="30" customHeight="1" spans="1:10">
@@ -3754,10 +3639,6 @@
       <c r="E30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30"/>
       <c r="J30" s="60"/>
     </row>
     <row r="31" customHeight="1" spans="1:12">
@@ -3768,7 +3649,7 @@
         <v>1653</v>
       </c>
       <c r="C31" s="9">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="D31" s="4">
         <v>-0.3</v>
@@ -3776,10 +3657,6 @@
       <c r="E31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31"/>
       <c r="J31" s="60"/>
       <c r="L31" s="58"/>
     </row>
@@ -3791,7 +3668,7 @@
         <v>1653</v>
       </c>
       <c r="C32" s="9">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="D32" s="4">
         <v>-0.3</v>
@@ -3799,10 +3676,6 @@
       <c r="E32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32"/>
       <c r="J32" s="60"/>
     </row>
     <row r="33" customHeight="1" spans="1:10">
@@ -3822,10 +3695,6 @@
       <c r="E33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33"/>
       <c r="J33" s="60"/>
     </row>
     <row r="34" customHeight="1" spans="1:10">
@@ -3845,10 +3714,6 @@
       <c r="E34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34"/>
       <c r="J34" s="60"/>
     </row>
     <row r="35" customHeight="1" spans="1:10">
@@ -3867,10 +3732,6 @@
       <c r="E35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35"/>
       <c r="J35" s="60"/>
     </row>
     <row r="36" customHeight="1" spans="1:10">
@@ -3889,10 +3750,6 @@
       <c r="E36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36"/>
       <c r="J36" s="60"/>
     </row>
     <row r="37" customHeight="1" spans="1:10">
@@ -3903,7 +3760,7 @@
         <v>1653</v>
       </c>
       <c r="C37" s="9">
-        <v>-650</v>
+        <v>-625</v>
       </c>
       <c r="D37" s="4">
         <v>-0.3</v>
@@ -3911,10 +3768,6 @@
       <c r="E37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37"/>
       <c r="J37" s="60"/>
     </row>
     <row r="38" customHeight="1" spans="1:10">
@@ -3925,7 +3778,7 @@
         <v>1659.3</v>
       </c>
       <c r="C38" s="9">
-        <v>-1126.3</v>
+        <v>-1150</v>
       </c>
       <c r="D38" s="4">
         <v>-0.302</v>
@@ -3933,10 +3786,6 @@
       <c r="E38" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38"/>
       <c r="J38" s="60"/>
     </row>
     <row r="39" customHeight="1" spans="1:10">
@@ -3957,10 +3806,6 @@
       <c r="E39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39"/>
       <c r="J39" s="60"/>
     </row>
     <row r="40" customHeight="1" spans="1:10">
@@ -3979,10 +3824,6 @@
       <c r="E40" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40"/>
       <c r="J40" s="60"/>
     </row>
     <row r="41" customHeight="1" spans="1:10">
@@ -3999,10 +3840,6 @@
         <v>-0.1</v>
       </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41"/>
       <c r="J41" s="60"/>
     </row>
     <row r="42" customHeight="1" spans="1:10">
@@ -4019,10 +3856,6 @@
         <v>-0.1</v>
       </c>
       <c r="E42" s="11"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42"/>
       <c r="J42" s="60"/>
     </row>
     <row r="43" customHeight="1" spans="1:10">
@@ -4039,10 +3872,6 @@
         <v>-0.1</v>
       </c>
       <c r="E43" s="11"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43"/>
       <c r="J43" s="60"/>
     </row>
     <row r="44" customHeight="1" spans="1:10">
@@ -4059,10 +3888,6 @@
         <v>-0.1</v>
       </c>
       <c r="E44" s="11"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44"/>
       <c r="J44" s="60"/>
     </row>
     <row r="45" customHeight="1" spans="1:10">
@@ -4079,10 +3904,6 @@
         <v>-0.1</v>
       </c>
       <c r="E45" s="11"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45"/>
       <c r="J45" s="60"/>
     </row>
     <row r="46" customHeight="1" spans="1:10">
@@ -4099,10 +3920,6 @@
         <v>-0.1</v>
       </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46"/>
       <c r="J46" s="60"/>
     </row>
     <row r="47" customHeight="1" spans="1:10">
@@ -4119,10 +3936,6 @@
         <v>-0.1</v>
       </c>
       <c r="E47" s="11"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47"/>
       <c r="J47" s="60"/>
     </row>
     <row r="48" customHeight="1" spans="1:10">
@@ -4141,10 +3954,6 @@
       <c r="E48" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48"/>
       <c r="J48" s="60"/>
     </row>
   </sheetData>
@@ -4160,8 +3969,8 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="20" customHeight="1"/>
@@ -6807,8 +6616,8 @@
   <sheetPr/>
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="20" customHeight="1"/>
@@ -6891,8 +6700,8 @@
       <c r="F2" s="1">
         <v>96</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>108</v>
+      <c r="G2" s="1">
+        <v>90</v>
       </c>
       <c r="H2" s="36">
         <v>0.105</v>
@@ -9141,7 +8950,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -9162,39 +8971,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="15">
         <v>0.193463</v>
@@ -9221,7 +9030,7 @@
         <v>90</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" s="16">
         <v>30</v>
@@ -9229,7 +9038,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="15">
         <v>0.273109</v>
@@ -9256,7 +9065,7 @@
         <v>90</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="16">
         <v>20</v>
@@ -9264,7 +9073,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="15">
         <v>0.2732105</v>
@@ -9291,7 +9100,7 @@
         <v>90</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" s="16">
         <v>20</v>
@@ -9299,7 +9108,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="15">
         <v>0.5398515</v>
@@ -9326,7 +9135,7 @@
         <v>90</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" s="16">
         <v>18</v>
@@ -9334,7 +9143,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="15">
         <v>0.54005925</v>
@@ -9361,7 +9170,7 @@
         <v>90</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K6" s="16">
         <v>18</v>
@@ -9369,7 +9178,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="15">
         <v>1.03976875</v>
@@ -9396,7 +9205,7 @@
         <v>90</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" s="16">
         <v>18</v>
@@ -9404,7 +9213,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="15">
         <v>1.03978325</v>
@@ -9431,7 +9240,7 @@
         <v>90</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" s="16">
         <v>18</v>
@@ -9439,7 +9248,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="22">
         <v>1.68563675</v>
@@ -9466,7 +9275,7 @@
         <v>90</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="16">
         <v>18</v>
@@ -9474,7 +9283,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="22">
         <v>1.6861155</v>
@@ -9501,7 +9310,7 @@
         <v>90</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="16">
         <v>18</v>
@@ -9509,7 +9318,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="22">
         <v>2.1087845</v>
@@ -9536,7 +9345,7 @@
         <v>90</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K11" s="16">
         <v>18</v>
@@ -9544,7 +9353,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="22">
         <v>2.10914375</v>
@@ -9571,7 +9380,7 @@
         <v>90</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K12" s="16">
         <v>18</v>
@@ -9579,7 +9388,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="24">
         <v>1.099562</v>
@@ -9606,7 +9415,7 @@
         <v>90</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K13" s="25">
         <v>4</v>
@@ -9614,7 +9423,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="24">
         <v>1.10001025</v>
@@ -9641,7 +9450,7 @@
         <v>90</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="25">
         <v>4</v>
@@ -9649,7 +9458,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="24">
         <v>1.025943</v>
@@ -9676,7 +9485,7 @@
         <v>120</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K15" s="25">
         <v>4</v>
@@ -9684,7 +9493,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="24">
         <v>1.025943</v>
@@ -9711,7 +9520,7 @@
         <v>60</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K16" s="25">
         <v>4</v>
@@ -9728,8 +9537,8 @@
   <sheetPr/>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>

--- a/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
+++ b/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\exl50u\diagnostics\emd\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451C99F3-1AEA-460F-A378-B05009FE4E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="430" yWindow="0" windowWidth="13720" windowHeight="15280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flux" sheetId="1" r:id="rId1"/>
     <sheet name="probeBt" sheetId="2" r:id="rId2"/>
     <sheet name="probeBr" sheetId="3" r:id="rId3"/>
     <sheet name="coils" sheetId="4" r:id="rId4"/>
-    <sheet name="flux_backup" sheetId="5" r:id="rId5"/>
+    <sheet name="machine" sheetId="6" r:id="rId5"/>
+    <sheet name="flange" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="157">
   <si>
     <t>Chns</t>
   </si>
@@ -368,7 +373,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>W</t>
     </r>
@@ -377,7 +382,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/m</t>
     </r>
@@ -388,7 +393,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>H</t>
     </r>
@@ -397,7 +402,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/m</t>
     </r>
@@ -408,7 +413,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>N</t>
     </r>
@@ -494,22 +499,82 @@
   <si>
     <t>PF14</t>
   </si>
+  <si>
+    <t>TFin_X</t>
+  </si>
+  <si>
+    <t>TFin_Z</t>
+  </si>
+  <si>
+    <t>TFout_X</t>
+  </si>
+  <si>
+    <t>TFout_Z</t>
+  </si>
+  <si>
+    <t>Post_Z</t>
+  </si>
+  <si>
+    <t>CF80</t>
+  </si>
+  <si>
+    <t>CF150</t>
+  </si>
+  <si>
+    <t>Out_X</t>
+  </si>
+  <si>
+    <t>Out_Z</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>顶部窗口</t>
+  </si>
+  <si>
+    <t>斜面窗口</t>
+  </si>
+  <si>
+    <t>S1-CF400</t>
+  </si>
+  <si>
+    <t>CF500</t>
+  </si>
+  <si>
+    <t>S3-CF400</t>
+  </si>
+  <si>
+    <t>底部窗口</t>
+  </si>
+  <si>
+    <t>VVin_X</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>VVin_Z</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>VV_out_Z</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>VVout_X</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,13 +606,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -558,14 +623,14 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -589,151 +654,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,192 +732,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1033,17 +819,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,270 +855,52 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1323,40 +909,40 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1371,82 +957,82 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1464,69 +1050,109 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1545,7 +1171,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.679769654481723"/>
-          <c:y val="0.0408436966593514"/>
+          <c:y val="4.0843696659351399E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1573,6 +1199,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1583,10 +1210,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0805335556481867"/>
-          <c:y val="0.22037037037037"/>
-          <c:w val="0.865694039182993"/>
-          <c:h val="0.772685185185185"/>
+          <c:x val="8.0533555648186705E-2"/>
+          <c:y val="0.22037037037036999"/>
+          <c:w val="0.86569403918299304"/>
+          <c:h val="0.77268518518518503"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1619,9 +1246,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>probeBt!$N$2:$N$53</c:f>
@@ -1634,40 +1258,40 @@
                 <c:pt idx="1">
                   <c:v>358.2</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.0_ ">
+                <c:pt idx="2" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.0_ ">
+                <c:pt idx="3" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.0_ ">
+                <c:pt idx="4" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.0_ ">
+                <c:pt idx="5" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.0_ ">
+                <c:pt idx="6" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.0_ ">
+                <c:pt idx="7" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="0.0_ ">
+                <c:pt idx="8" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="0.0_ ">
+                <c:pt idx="9" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.0_ ">
+                <c:pt idx="10" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="0.0_ ">
+                <c:pt idx="11" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="0.0_ ">
+                <c:pt idx="12" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="0.0_ ">
+                <c:pt idx="13" formatCode="0.0_ ">
                   <c:v>244.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
@@ -1676,112 +1300,112 @@
                 <c:pt idx="15">
                   <c:v>358.2</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="0.0_ ">
+                <c:pt idx="16" formatCode="0.0_ ">
                   <c:v>492.1</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="0.0_ ">
+                <c:pt idx="17" formatCode="0.0_ ">
                   <c:v>562.1</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="0.0_ ">
+                <c:pt idx="18" formatCode="0.0_ ">
                   <c:v>632.1</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="0.0_ ">
+                <c:pt idx="19" formatCode="0.0_ ">
                   <c:v>702.1</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="0.0_ ">
+                <c:pt idx="20" formatCode="0.0_ ">
                   <c:v>772.1</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="0.0_ ">
+                <c:pt idx="21" formatCode="0.0_ ">
                   <c:v>842.1</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="0.0_ ">
+                <c:pt idx="22" formatCode="0.0_ ">
                   <c:v>912.1</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="0.0_ ">
+                <c:pt idx="23" formatCode="0.0_ ">
                   <c:v>982.1</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="0.0_ ">
-                  <c:v>1052.1</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="0.0_ ">
-                  <c:v>1217.36325795501</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="0.0_ ">
+                <c:pt idx="24" formatCode="0.0_ ">
+                  <c:v>1052.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0_ ">
+                  <c:v>1217.3632579550101</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0_ ">
                   <c:v>1333.06502769859</c:v>
                 </c:pt>
-                <c:pt idx="27" c:formatCode="0.0_ ">
-                  <c:v>1448.76679744217</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="0.0_ ">
+                <c:pt idx="27" formatCode="0.0_ ">
+                  <c:v>1448.7667974421699</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="0.0_ ">
+                <c:pt idx="29" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="0.0_ ">
+                <c:pt idx="30" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="31" c:formatCode="0.0_ ">
+                <c:pt idx="31" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="32" c:formatCode="0.0_ ">
+                <c:pt idx="32" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="33" c:formatCode="0.0_ ">
+                <c:pt idx="33" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="34" c:formatCode="0.0_ ">
+                <c:pt idx="34" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="35" c:formatCode="0.0_ ">
+                <c:pt idx="35" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="36" c:formatCode="0.0_ ">
+                <c:pt idx="36" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="37" c:formatCode="0.0_ ">
+                <c:pt idx="37" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="38" c:formatCode="0.0_ ">
+                <c:pt idx="38" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="39" c:formatCode="0.0_ ">
+                <c:pt idx="39" formatCode="0.0_ ">
                   <c:v>1597.7</c:v>
                 </c:pt>
-                <c:pt idx="40" c:formatCode="0.0_ ">
+                <c:pt idx="40" formatCode="0.0_ ">
                   <c:v>1495.98546037552</c:v>
                 </c:pt>
-                <c:pt idx="41" c:formatCode="0.0_ ">
+                <c:pt idx="41" formatCode="0.0_ ">
                   <c:v>1342.77657175173</c:v>
                 </c:pt>
-                <c:pt idx="42" c:formatCode="0.0_ ">
+                <c:pt idx="42" formatCode="0.0_ ">
                   <c:v>1189.56768312793</c:v>
                 </c:pt>
-                <c:pt idx="43" c:formatCode="0.0_ ">
+                <c:pt idx="43" formatCode="0.0_ ">
                   <c:v>1052.8</c:v>
                 </c:pt>
-                <c:pt idx="44" c:formatCode="0.0_ ">
+                <c:pt idx="44" formatCode="0.0_ ">
                   <c:v>982.8</c:v>
                 </c:pt>
-                <c:pt idx="45" c:formatCode="0.0_ ">
+                <c:pt idx="45" formatCode="0.0_ ">
                   <c:v>912.8</c:v>
                 </c:pt>
-                <c:pt idx="46" c:formatCode="0.0_ ">
+                <c:pt idx="46" formatCode="0.0_ ">
                   <c:v>842.8</c:v>
                 </c:pt>
-                <c:pt idx="47" c:formatCode="0.0_ ">
+                <c:pt idx="47" formatCode="0.0_ ">
                   <c:v>772.8</c:v>
                 </c:pt>
-                <c:pt idx="48" c:formatCode="0.0_ ">
+                <c:pt idx="48" formatCode="0.0_ ">
                   <c:v>702.8</c:v>
                 </c:pt>
-                <c:pt idx="49" c:formatCode="0.0_ ">
-                  <c:v>632.8</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="0.0_ ">
+                <c:pt idx="49" formatCode="0.0_ ">
+                  <c:v>632.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.0_ ">
                   <c:v>947.8</c:v>
                 </c:pt>
-                <c:pt idx="51" c:formatCode="0.0_ ">
+                <c:pt idx="51" formatCode="0.0_ ">
                   <c:v>492.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1799,40 +1423,40 @@
                 <c:pt idx="1">
                   <c:v>-1312.5</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.00_ ">
+                <c:pt idx="2" formatCode="0.00_ ">
                   <c:v>-962.5</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.00_ ">
+                <c:pt idx="3" formatCode="0.00_ ">
                   <c:v>-787.5</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.00_ ">
+                <c:pt idx="4" formatCode="0.00_ ">
                   <c:v>-612.5</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00_ ">
+                <c:pt idx="5" formatCode="0.00_ ">
                   <c:v>-437.5</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.00_ ">
+                <c:pt idx="6" formatCode="0.00_ ">
                   <c:v>-262.5</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.00_ ">
+                <c:pt idx="7" formatCode="0.00_ ">
                   <c:v>-87.5</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="0.00_ ">
+                <c:pt idx="8" formatCode="0.00_ ">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="0.00_ ">
+                <c:pt idx="9" formatCode="0.00_ ">
                   <c:v>262.5</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
+                <c:pt idx="10" formatCode="0.00_ ">
                   <c:v>437.5</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="0.00_ ">
+                <c:pt idx="11" formatCode="0.00_ ">
                   <c:v>612.5</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="0.00_ ">
+                <c:pt idx="12" formatCode="0.00_ ">
                   <c:v>787.5</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="0.00_ ">
+                <c:pt idx="13" formatCode="0.00_ ">
                   <c:v>962.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
@@ -1841,118 +1465,123 @@
                 <c:pt idx="15">
                   <c:v>1488</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="0.0_ ">
+                <c:pt idx="16" formatCode="0.0_ ">
                   <c:v>1604.2</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="0.0_ ">
+                <c:pt idx="17" formatCode="0.0_ ">
                   <c:v>1604.2</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="0.0_ ">
+                <c:pt idx="18" formatCode="0.0_ ">
                   <c:v>1604.2</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="0.0_ ">
+                <c:pt idx="19" formatCode="0.0_ ">
                   <c:v>1604.2</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="0.0_ ">
+                <c:pt idx="20" formatCode="0.0_ ">
                   <c:v>1604.2</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="0.0_ ">
+                <c:pt idx="21" formatCode="0.0_ ">
                   <c:v>1604.2</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="0.0_ ">
+                <c:pt idx="22" formatCode="0.0_ ">
                   <c:v>1604.2</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="0.0_ ">
+                <c:pt idx="23" formatCode="0.0_ ">
                   <c:v>1604.2</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="0.0_ ">
+                <c:pt idx="24" formatCode="0.0_ ">
                   <c:v>1604.2</c:v>
                 </c:pt>
-                <c:pt idx="25" c:formatCode="0.0_ ">
+                <c:pt idx="25" formatCode="0.0_ ">
                   <c:v>1521.32301438475</c:v>
                 </c:pt>
-                <c:pt idx="26" c:formatCode="0.0_ ">
-                  <c:v>1383.43501462333</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="0.0_ ">
-                  <c:v>1245.54701486191</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="0.0_ ">
+                <c:pt idx="26" formatCode="0.0_ ">
+                  <c:v>1383.4350146233301</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0_ ">
+                  <c:v>1245.5470148619099</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0_ ">
                   <c:v>965</c:v>
                 </c:pt>
-                <c:pt idx="29" c:formatCode="0.0_ ">
+                <c:pt idx="29" formatCode="0.0_ ">
                   <c:v>790</c:v>
                 </c:pt>
-                <c:pt idx="30" c:formatCode="0.0_ ">
+                <c:pt idx="30" formatCode="0.0_ ">
                   <c:v>615</c:v>
                 </c:pt>
-                <c:pt idx="31" c:formatCode="0.0_ ">
+                <c:pt idx="31" formatCode="0.0_ ">
                   <c:v>440</c:v>
                 </c:pt>
-                <c:pt idx="32" c:formatCode="0.0_ ">
+                <c:pt idx="32" formatCode="0.0_ ">
                   <c:v>265</c:v>
                 </c:pt>
-                <c:pt idx="33" c:formatCode="0.0_ ">
+                <c:pt idx="33" formatCode="0.0_ ">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="34" c:formatCode="0.0_ ">
+                <c:pt idx="34" formatCode="0.0_ ">
                   <c:v>-84.8</c:v>
                 </c:pt>
-                <c:pt idx="35" c:formatCode="0.0_ ">
+                <c:pt idx="35" formatCode="0.0_ ">
                   <c:v>-259.8</c:v>
                 </c:pt>
-                <c:pt idx="36" c:formatCode="0.0_ ">
+                <c:pt idx="36" formatCode="0.0_ ">
                   <c:v>-434.8</c:v>
                 </c:pt>
-                <c:pt idx="37" c:formatCode="0.0_ ">
-                  <c:v>-609.8</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="0.0_ ">
+                <c:pt idx="37" formatCode="0.0_ ">
+                  <c:v>-609.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.0_ ">
                   <c:v>-784.8</c:v>
                 </c:pt>
-                <c:pt idx="39" c:formatCode="0.0_ ">
+                <c:pt idx="39" formatCode="0.0_ ">
                   <c:v>-959.8</c:v>
                 </c:pt>
-                <c:pt idx="40" c:formatCode="0.0_ ">
+                <c:pt idx="40" formatCode="0.0_ ">
                   <c:v>-1158.48939400218</c:v>
                 </c:pt>
-                <c:pt idx="41" c:formatCode="0.0_ ">
+                <c:pt idx="41" formatCode="0.0_ ">
                   <c:v>-1287.04691593949</c:v>
                 </c:pt>
-                <c:pt idx="42" c:formatCode="0.0_ ">
-                  <c:v>-1415.6044378768</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="0.0_ ">
+                <c:pt idx="42" formatCode="0.0_ ">
+                  <c:v>-1415.6044378767999</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0_ ">
                   <c:v>-1602.4</c:v>
                 </c:pt>
-                <c:pt idx="44" c:formatCode="0.0_ ">
+                <c:pt idx="44" formatCode="0.0_ ">
                   <c:v>-1602.4</c:v>
                 </c:pt>
-                <c:pt idx="45" c:formatCode="0.0_ ">
+                <c:pt idx="45" formatCode="0.0_ ">
                   <c:v>-1602.4</c:v>
                 </c:pt>
-                <c:pt idx="46" c:formatCode="0.0_ ">
+                <c:pt idx="46" formatCode="0.0_ ">
                   <c:v>-1602.4</c:v>
                 </c:pt>
-                <c:pt idx="47" c:formatCode="0.0_ ">
+                <c:pt idx="47" formatCode="0.0_ ">
                   <c:v>-1602.4</c:v>
                 </c:pt>
-                <c:pt idx="48" c:formatCode="0.0_ ">
+                <c:pt idx="48" formatCode="0.0_ ">
                   <c:v>-1602.4</c:v>
                 </c:pt>
-                <c:pt idx="49" c:formatCode="0.0_ ">
+                <c:pt idx="49" formatCode="0.0_ ">
                   <c:v>-1602.4</c:v>
                 </c:pt>
-                <c:pt idx="50" c:formatCode="0.0_ ">
+                <c:pt idx="50" formatCode="0.0_ ">
                   <c:v>-1602.4</c:v>
                 </c:pt>
-                <c:pt idx="51" c:formatCode="0.0_ ">
+                <c:pt idx="51" formatCode="0.0_ ">
                   <c:v>-1602.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-417C-4276-A8FC-22A31BA65B08}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2020,6 +1649,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="60190626"/>
@@ -2081,6 +1711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="770191468"/>
@@ -2121,6 +1752,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2688,7 +2320,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -2704,13 +2336,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2744,18 +2382,24 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>29210</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15506700" y="6314440"/>
-        <a:ext cx="3836670" cy="5449570"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2765,7 +2409,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2781,13 +2425,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3063,36 +2713,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.8166666666667" style="58" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.84375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="12.23046875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="13.3828125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="10.61328125" style="28" customWidth="1"/>
     <col min="5" max="5" width="35" style="58" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="59" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="59" customWidth="1"/>
-    <col min="9" max="10" width="13.75"/>
-    <col min="12" max="12" width="12.625"/>
-    <col min="13" max="14" width="13.75"/>
+    <col min="6" max="6" width="15.84375" style="58" customWidth="1"/>
+    <col min="7" max="7" width="10.3828125" style="59" customWidth="1"/>
+    <col min="8" max="8" width="13.4609375" style="59" customWidth="1"/>
+    <col min="9" max="10" width="13.765625"/>
+    <col min="12" max="12" width="12.61328125"/>
+    <col min="13" max="14" width="13.765625"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +2759,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3119,14 +2770,14 @@
         <v>-1576.5</v>
       </c>
       <c r="D2" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="60"/>
     </row>
-    <row r="3" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3137,14 +2788,14 @@
         <v>-1401.5</v>
       </c>
       <c r="D3" s="4">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="60"/>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3155,14 +2806,14 @@
         <v>-1226.5</v>
       </c>
       <c r="D4" s="4">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3173,14 +2824,14 @@
         <v>-1050</v>
       </c>
       <c r="D5" s="4">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="60"/>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3191,14 +2842,14 @@
         <v>-875</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="60"/>
     </row>
-    <row r="7" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3209,14 +2860,14 @@
         <v>-700</v>
       </c>
       <c r="D7" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3227,14 +2878,14 @@
         <v>-525</v>
       </c>
       <c r="D8" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="60"/>
     </row>
-    <row r="9" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3245,14 +2896,14 @@
         <v>-350</v>
       </c>
       <c r="D9" s="4">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="60"/>
     </row>
-    <row r="10" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -3263,14 +2914,14 @@
         <v>-175</v>
       </c>
       <c r="D10" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="60"/>
     </row>
-    <row r="11" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3281,14 +2932,14 @@
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="60"/>
     </row>
-    <row r="12" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3299,14 +2950,14 @@
         <v>175</v>
       </c>
       <c r="D12" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="60"/>
     </row>
-    <row r="13" customHeight="1" spans="1:10">
+    <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -3317,14 +2968,14 @@
         <v>350</v>
       </c>
       <c r="D13" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="60"/>
     </row>
-    <row r="14" customHeight="1" spans="1:10">
+    <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -3335,14 +2986,14 @@
         <v>525</v>
       </c>
       <c r="D14" s="4">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J14" s="60"/>
     </row>
-    <row r="15" customHeight="1" spans="1:10">
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -3353,14 +3004,14 @@
         <v>700</v>
       </c>
       <c r="D15" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="60"/>
     </row>
-    <row r="16" customHeight="1" spans="1:10">
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3371,14 +3022,14 @@
         <v>875</v>
       </c>
       <c r="D16" s="4">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="60"/>
     </row>
-    <row r="17" customHeight="1" spans="1:10">
+    <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -3389,14 +3040,14 @@
         <v>1050</v>
       </c>
       <c r="D17" s="4">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="60"/>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
+    <row r="18" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -3407,14 +3058,14 @@
         <v>1226.5</v>
       </c>
       <c r="D18" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J18" s="60"/>
     </row>
-    <row r="19" customHeight="1" spans="1:10">
+    <row r="19" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -3425,14 +3076,14 @@
         <v>1401.5</v>
       </c>
       <c r="D19" s="4">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J19" s="60"/>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
+    <row r="20" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -3443,14 +3094,14 @@
         <v>1576.5</v>
       </c>
       <c r="D20" s="4">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J20" s="60"/>
     </row>
-    <row r="21" customHeight="1" spans="1:10">
+    <row r="21" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -3469,7 +3120,7 @@
       </c>
       <c r="J21" s="60"/>
     </row>
-    <row r="22" customHeight="1" spans="1:10">
+    <row r="22" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -3488,7 +3139,7 @@
       </c>
       <c r="J22" s="60"/>
     </row>
-    <row r="23" customHeight="1" spans="1:10">
+    <row r="23" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -3507,7 +3158,7 @@
       </c>
       <c r="J23" s="60"/>
     </row>
-    <row r="24" customHeight="1" spans="1:10">
+    <row r="24" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -3526,7 +3177,7 @@
       </c>
       <c r="J24" s="60"/>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
+    <row r="25" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -3545,7 +3196,7 @@
       </c>
       <c r="J25" s="60"/>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
+    <row r="26" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -3564,7 +3215,7 @@
       </c>
       <c r="J26" s="60"/>
     </row>
-    <row r="27" customHeight="1" spans="1:10">
+    <row r="27" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -3583,7 +3234,7 @@
       </c>
       <c r="J27" s="60"/>
     </row>
-    <row r="28" customHeight="1" spans="1:10">
+    <row r="28" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -3602,7 +3253,7 @@
       </c>
       <c r="J28" s="60"/>
     </row>
-    <row r="29" customHeight="1" spans="1:10">
+    <row r="29" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -3621,17 +3272,17 @@
       </c>
       <c r="J29" s="60"/>
     </row>
-    <row r="30" customHeight="1" spans="1:10">
+    <row r="30" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="7">
         <f>1418.2+30*COS(50/180*PI())</f>
-        <v>1437.4836282906</v>
+        <v>1437.4836282906001</v>
       </c>
       <c r="C30" s="7">
         <f>1340.1-30*SIN(50/180*PI())</f>
-        <v>1317.11866670643</v>
+        <v>1317.1186667064301</v>
       </c>
       <c r="D30" s="4">
         <v>-0.1</v>
@@ -3641,7 +3292,7 @@
       </c>
       <c r="J30" s="60"/>
     </row>
-    <row r="31" customHeight="1" spans="1:12">
+    <row r="31" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -3660,7 +3311,7 @@
       <c r="J31" s="60"/>
       <c r="L31" s="58"/>
     </row>
-    <row r="32" customHeight="1" spans="1:10">
+    <row r="32" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -3678,7 +3329,7 @@
       </c>
       <c r="J32" s="60"/>
     </row>
-    <row r="33" customHeight="1" spans="1:10">
+    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -3697,7 +3348,7 @@
       </c>
       <c r="J33" s="60"/>
     </row>
-    <row r="34" customHeight="1" spans="1:10">
+    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3716,7 +3367,7 @@
       </c>
       <c r="J34" s="60"/>
     </row>
-    <row r="35" customHeight="1" spans="1:10">
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -3734,7 +3385,7 @@
       </c>
       <c r="J35" s="60"/>
     </row>
-    <row r="36" customHeight="1" spans="1:10">
+    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>61</v>
       </c>
@@ -3752,7 +3403,7 @@
       </c>
       <c r="J36" s="60"/>
     </row>
-    <row r="37" customHeight="1" spans="1:10">
+    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>62</v>
       </c>
@@ -3770,7 +3421,7 @@
       </c>
       <c r="J37" s="60"/>
     </row>
-    <row r="38" customHeight="1" spans="1:10">
+    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
@@ -3781,24 +3432,24 @@
         <v>-1150</v>
       </c>
       <c r="D38" s="4">
-        <v>-0.302</v>
+        <v>-0.30199999999999999</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J38" s="60"/>
     </row>
-    <row r="39" customHeight="1" spans="1:10">
+    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="7">
         <f>1418.2+30*COS(50/180*PI())</f>
-        <v>1437.4836282906</v>
+        <v>1437.4836282906001</v>
       </c>
       <c r="C39" s="7">
         <f>-(1340.1-30*SIN(50/180*PI()))</f>
-        <v>-1317.11866670643</v>
+        <v>-1317.1186667064301</v>
       </c>
       <c r="D39" s="4">
         <v>-0.1</v>
@@ -3808,7 +3459,7 @@
       </c>
       <c r="J39" s="60"/>
     </row>
-    <row r="40" customHeight="1" spans="1:10">
+    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -3826,7 +3477,7 @@
       </c>
       <c r="J40" s="60"/>
     </row>
-    <row r="41" customHeight="1" spans="1:10">
+    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3842,7 +3493,7 @@
       <c r="E41" s="11"/>
       <c r="J41" s="60"/>
     </row>
-    <row r="42" customHeight="1" spans="1:10">
+    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>70</v>
       </c>
@@ -3858,7 +3509,7 @@
       <c r="E42" s="11"/>
       <c r="J42" s="60"/>
     </row>
-    <row r="43" customHeight="1" spans="1:10">
+    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>71</v>
       </c>
@@ -3874,7 +3525,7 @@
       <c r="E43" s="11"/>
       <c r="J43" s="60"/>
     </row>
-    <row r="44" customHeight="1" spans="1:10">
+    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>72</v>
       </c>
@@ -3890,7 +3541,7 @@
       <c r="E44" s="11"/>
       <c r="J44" s="60"/>
     </row>
-    <row r="45" customHeight="1" spans="1:10">
+    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>73</v>
       </c>
@@ -3906,7 +3557,7 @@
       <c r="E45" s="11"/>
       <c r="J45" s="60"/>
     </row>
-    <row r="46" customHeight="1" spans="1:10">
+    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>74</v>
       </c>
@@ -3922,7 +3573,7 @@
       <c r="E46" s="11"/>
       <c r="J46" s="60"/>
     </row>
-    <row r="47" customHeight="1" spans="1:10">
+    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
@@ -3938,7 +3589,7 @@
       <c r="E47" s="11"/>
       <c r="J47" s="60"/>
     </row>
-    <row r="48" customHeight="1" spans="1:10">
+    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>76</v>
       </c>
@@ -3957,44 +3608,44 @@
       <c r="J48" s="60"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:AL58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.45" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.64166666666667" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.4666666666667" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.4609375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.61328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" style="27" customWidth="1"/>
     <col min="4" max="4" width="9" style="28"/>
-    <col min="5" max="5" width="27.75" style="28" customWidth="1"/>
-    <col min="6" max="6" width="9.025" style="28" customWidth="1"/>
+    <col min="5" max="5" width="27.765625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="9" style="28" customWidth="1"/>
     <col min="7" max="7" width="9" style="28"/>
-    <col min="8" max="8" width="8.25" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.6416666666667" style="29" customWidth="1"/>
-    <col min="10" max="10" width="7.81666666666667" style="28" customWidth="1"/>
-    <col min="11" max="11" width="9.01666666666667" style="28" customWidth="1"/>
-    <col min="12" max="12" width="6.95833333333333" style="28" customWidth="1"/>
-    <col min="13" max="13" width="8.04166666666667" style="29" customWidth="1"/>
-    <col min="14" max="14" width="14.6416666666667" style="27" customWidth="1"/>
-    <col min="15" max="15" width="12.625" style="27"/>
+    <col min="8" max="8" width="8.23046875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.61328125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="7.84375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="9" style="28" customWidth="1"/>
+    <col min="12" max="12" width="6.921875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="8" style="29" customWidth="1"/>
+    <col min="14" max="14" width="14.61328125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="12.61328125" style="27"/>
     <col min="16" max="38" width="9" style="28"/>
-    <col min="39" max="16384" width="8.81666666666667" style="12"/>
+    <col min="39" max="16384" width="8.84375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -4035,7 +3686,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -4061,7 +3712,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -4074,7 +3725,7 @@
         <v>-1488</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:15">
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -4100,7 +3751,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
@@ -4113,7 +3764,7 @@
         <v>-1312.5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:15">
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -4139,7 +3790,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J4" s="1">
         <v>2.6</v>
@@ -4160,7 +3811,7 @@
         <v>-962.5</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:15">
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -4186,7 +3837,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J5" s="1">
         <v>2.6</v>
@@ -4207,7 +3858,7 @@
         <v>-787.5</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:15">
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -4233,7 +3884,7 @@
         <v>38</v>
       </c>
       <c r="I6" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J6" s="1">
         <v>2.6</v>
@@ -4254,7 +3905,7 @@
         <v>-612.5</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:15">
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -4280,7 +3931,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J7" s="1">
         <v>2.6</v>
@@ -4301,7 +3952,7 @@
         <v>-437.5</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:15">
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -4327,7 +3978,7 @@
         <v>38</v>
       </c>
       <c r="I8" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J8" s="1">
         <v>2.6</v>
@@ -4348,7 +3999,7 @@
         <v>-262.5</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:15">
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34">
         <v>8</v>
       </c>
@@ -4374,7 +4025,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J9" s="1">
         <v>2.6</v>
@@ -4395,7 +4046,7 @@
         <v>-87.5</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:15">
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34">
         <v>9</v>
       </c>
@@ -4421,7 +4072,7 @@
         <v>38</v>
       </c>
       <c r="I10" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J10" s="1">
         <v>2.6</v>
@@ -4442,7 +4093,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:15">
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34">
         <v>10</v>
       </c>
@@ -4468,7 +4119,7 @@
         <v>38</v>
       </c>
       <c r="I11" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J11" s="1">
         <v>2.6</v>
@@ -4489,7 +4140,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:15">
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -4515,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="I12" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J12" s="1">
         <v>2.6</v>
@@ -4536,7 +4187,7 @@
         <v>437.5</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:15">
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -4562,7 +4213,7 @@
         <v>38</v>
       </c>
       <c r="I13" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J13" s="1">
         <v>2.6</v>
@@ -4583,7 +4234,7 @@
         <v>612.5</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:15">
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -4609,7 +4260,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J14" s="1">
         <v>2.6</v>
@@ -4630,7 +4281,7 @@
         <v>787.5</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:15">
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -4656,7 +4307,7 @@
         <v>38</v>
       </c>
       <c r="I15" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J15" s="1">
         <v>2.6</v>
@@ -4677,7 +4328,7 @@
         <v>962.5</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:15">
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <v>15</v>
       </c>
@@ -4703,7 +4354,7 @@
         <v>38</v>
       </c>
       <c r="I16" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4716,7 +4367,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:17">
+    <row r="17" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34">
         <v>16</v>
       </c>
@@ -4742,7 +4393,7 @@
         <v>38</v>
       </c>
       <c r="I17" s="36">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -4755,13 +4406,13 @@
         <v>1488</v>
       </c>
       <c r="P17" s="54">
-        <v>1069.6</v>
+        <v>1069.5999999999999</v>
       </c>
       <c r="Q17" s="54">
         <v>1582.2</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:15">
+    <row r="18" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -4787,7 +4438,7 @@
         <v>60</v>
       </c>
       <c r="I18" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J18" s="6">
         <v>25</v>
@@ -4799,7 +4450,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N18" s="27">
         <f>$P$17-632.5+55</f>
@@ -4810,7 +4461,7 @@
         <v>1604.2</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:15">
+    <row r="19" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -4837,7 +4488,7 @@
       </c>
       <c r="I19" s="39">
         <f>F19*G19*H19/0.75*6/1000000</f>
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="J19" s="6">
         <v>25</v>
@@ -4849,7 +4500,7 @@
         <v>30</v>
       </c>
       <c r="M19" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N19" s="27">
         <f>$P$17-632.5+55+70</f>
@@ -4860,7 +4511,7 @@
         <v>1604.2</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:15">
+    <row r="20" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -4887,7 +4538,7 @@
       </c>
       <c r="I20" s="39">
         <f>F20*G20*H20/0.75*6/1000000</f>
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="J20" s="6">
         <v>25</v>
@@ -4899,7 +4550,7 @@
         <v>30</v>
       </c>
       <c r="M20" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N20" s="27">
         <f>$P$17-632.5+55+70*2</f>
@@ -4910,7 +4561,7 @@
         <v>1604.2</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:15">
+    <row r="21" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -4937,7 +4588,7 @@
       </c>
       <c r="I21" s="39">
         <f>F21*G21*H21/0.75*6/1000000</f>
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="J21" s="6">
         <v>25</v>
@@ -4949,7 +4600,7 @@
         <v>30</v>
       </c>
       <c r="M21" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N21" s="27">
         <f>$P$17-632.5+55+70*3</f>
@@ -4960,7 +4611,7 @@
         <v>1604.2</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:15">
+    <row r="22" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -4986,7 +4637,7 @@
         <v>60</v>
       </c>
       <c r="I22" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J22" s="6">
         <v>25</v>
@@ -4998,7 +4649,7 @@
         <v>30</v>
       </c>
       <c r="M22" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N22" s="27">
         <f>$P$17-632.5+55+70*4</f>
@@ -5009,7 +4660,7 @@
         <v>1604.2</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:15">
+    <row r="23" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -5036,7 +4687,7 @@
       </c>
       <c r="I23" s="39">
         <f>F23*G23*H23/0.75*6/1000000</f>
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="J23" s="6">
         <v>25</v>
@@ -5048,7 +4699,7 @@
         <v>30</v>
       </c>
       <c r="M23" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N23" s="27">
         <f>$P$17-632.5+55+70*5</f>
@@ -5059,7 +4710,7 @@
         <v>1604.2</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:15">
+    <row r="24" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -5086,7 +4737,7 @@
       </c>
       <c r="I24" s="39">
         <f>F24*G24*H24/0.75*6/1000000</f>
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="J24" s="6">
         <v>25</v>
@@ -5098,7 +4749,7 @@
         <v>30</v>
       </c>
       <c r="M24" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N24" s="27">
         <f>$P$17-632.5+55+70*6</f>
@@ -5109,7 +4760,7 @@
         <v>1604.2</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:15">
+    <row r="25" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -5136,7 +4787,7 @@
       </c>
       <c r="I25" s="39">
         <f>F25*G25*H25/0.75*6/1000000</f>
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="J25" s="6">
         <v>25</v>
@@ -5148,7 +4799,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N25" s="27">
         <f>$P$17-632.5+55+70*7</f>
@@ -5159,12 +4810,12 @@
         <v>1604.2</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:15">
+    <row r="26" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="37">
         <v>25</v>
       </c>
       <c r="B26" s="38">
-        <v>1052.1</v>
+        <v>1052.0999999999999</v>
       </c>
       <c r="C26" s="38">
         <v>1604.2</v>
@@ -5186,7 +4837,7 @@
       </c>
       <c r="I26" s="39">
         <f>F26*G26*H26/0.75*6/1000000</f>
-        <v>0.408</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="J26" s="6">
         <v>25</v>
@@ -5198,23 +4849,23 @@
         <v>30</v>
       </c>
       <c r="M26" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N26" s="27">
         <f>$P$17-632.5+55+70*8</f>
-        <v>1052.1</v>
+        <v>1052.0999999999999</v>
       </c>
       <c r="O26" s="27">
         <f t="shared" si="0"/>
         <v>1604.2</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:19">
+    <row r="27" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="40">
         <v>26</v>
       </c>
       <c r="B27" s="41">
-        <v>1217.36325795501</v>
+        <v>1217.3632579550101</v>
       </c>
       <c r="C27" s="41">
         <v>1521.32301438475</v>
@@ -5235,7 +4886,7 @@
         <v>45</v>
       </c>
       <c r="I27" s="40">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J27" s="42">
         <v>20</v>
@@ -5247,18 +4898,18 @@
         <v>70</v>
       </c>
       <c r="M27" s="43">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N27" s="27">
         <f>$P$27+R27*SIN(40/180*PI())-S27*COS(40/180*PI())</f>
-        <v>1217.36325795501</v>
+        <v>1217.3632579550101</v>
       </c>
       <c r="O27" s="27">
         <f>$Q$27-R27*COS(40/180*PI())-S27*SIN(40/180*PI())</f>
         <v>1521.32301438475</v>
       </c>
       <c r="P27" s="54">
-        <v>1174.6</v>
+        <v>1174.5999999999999</v>
       </c>
       <c r="Q27" s="54">
         <v>1596.4</v>
@@ -5270,7 +4921,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="28" ht="24" customHeight="1" spans="1:19">
+    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="40">
         <v>27</v>
       </c>
@@ -5278,7 +4929,7 @@
         <v>1333.06502769859</v>
       </c>
       <c r="C28" s="41">
-        <v>1383.43501462333</v>
+        <v>1383.4350146233301</v>
       </c>
       <c r="D28" s="42">
         <v>310</v>
@@ -5296,7 +4947,7 @@
         <v>45</v>
       </c>
       <c r="I28" s="40">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J28" s="42">
         <v>20</v>
@@ -5308,7 +4959,7 @@
         <v>70</v>
       </c>
       <c r="M28" s="43">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N28" s="27">
         <f>$P$27+R28*SIN(40/180*PI())-S28*COS(40/180*PI())</f>
@@ -5316,7 +4967,7 @@
       </c>
       <c r="O28" s="27">
         <f>$Q$27-R28*COS(40/180*PI())-S28*SIN(40/180*PI())</f>
-        <v>1383.43501462333</v>
+        <v>1383.4350146233301</v>
       </c>
       <c r="R28" s="28">
         <v>265</v>
@@ -5325,15 +4976,15 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:19">
+    <row r="29" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="40">
         <v>28</v>
       </c>
       <c r="B29" s="41">
-        <v>1448.76679744217</v>
+        <v>1448.7667974421699</v>
       </c>
       <c r="C29" s="41">
-        <v>1245.54701486191</v>
+        <v>1245.5470148619099</v>
       </c>
       <c r="D29" s="42">
         <v>310</v>
@@ -5351,7 +5002,7 @@
         <v>45</v>
       </c>
       <c r="I29" s="40">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J29" s="42">
         <v>20</v>
@@ -5363,15 +5014,15 @@
         <v>70</v>
       </c>
       <c r="M29" s="43">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N29" s="27">
         <f>$P$27+R29*SIN(40/180*PI())-S29*COS(40/180*PI())</f>
-        <v>1448.76679744217</v>
+        <v>1448.7667974421699</v>
       </c>
       <c r="O29" s="27">
         <f>$Q$27-R29*COS(40/180*PI())-S29*SIN(40/180*PI())</f>
-        <v>1245.54701486191</v>
+        <v>1245.5470148619099</v>
       </c>
       <c r="R29" s="28">
         <v>445</v>
@@ -5380,7 +5031,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:17">
+    <row r="30" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44">
         <v>29</v>
       </c>
@@ -5406,7 +5057,7 @@
         <v>45</v>
       </c>
       <c r="I30" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J30" s="9">
         <v>20</v>
@@ -5418,7 +5069,7 @@
         <v>70</v>
       </c>
       <c r="M30" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N30" s="56">
         <f>$P$30-15.5</f>
@@ -5435,7 +5086,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:15">
+    <row r="31" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44">
         <v>30</v>
       </c>
@@ -5461,7 +5112,7 @@
         <v>45</v>
       </c>
       <c r="I31" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J31" s="9">
         <v>20</v>
@@ -5473,7 +5124,7 @@
         <v>70</v>
       </c>
       <c r="M31" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N31" s="56">
         <f t="shared" ref="N31:N41" si="1">$P$30-15.5</f>
@@ -5484,7 +5135,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:15">
+    <row r="32" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44">
         <v>31</v>
       </c>
@@ -5510,7 +5161,7 @@
         <v>45</v>
       </c>
       <c r="I32" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J32" s="9">
         <v>20</v>
@@ -5522,7 +5173,7 @@
         <v>70</v>
       </c>
       <c r="M32" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N32" s="56">
         <f t="shared" si="1"/>
@@ -5533,7 +5184,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:15">
+    <row r="33" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44">
         <v>32</v>
       </c>
@@ -5559,7 +5210,7 @@
         <v>45</v>
       </c>
       <c r="I33" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J33" s="9">
         <v>20</v>
@@ -5571,7 +5222,7 @@
         <v>70</v>
       </c>
       <c r="M33" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N33" s="56">
         <f t="shared" si="1"/>
@@ -5582,7 +5233,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:15">
+    <row r="34" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44">
         <v>33</v>
       </c>
@@ -5608,7 +5259,7 @@
         <v>45</v>
       </c>
       <c r="I34" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J34" s="9">
         <v>20</v>
@@ -5620,7 +5271,7 @@
         <v>70</v>
       </c>
       <c r="M34" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N34" s="56">
         <f t="shared" si="1"/>
@@ -5631,7 +5282,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:15">
+    <row r="35" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44">
         <v>34</v>
       </c>
@@ -5657,7 +5308,7 @@
         <v>45</v>
       </c>
       <c r="I35" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J35" s="9">
         <v>20</v>
@@ -5669,7 +5320,7 @@
         <v>70</v>
       </c>
       <c r="M35" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N35" s="56">
         <f t="shared" si="1"/>
@@ -5680,7 +5331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:16">
+    <row r="36" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44">
         <v>35</v>
       </c>
@@ -5706,7 +5357,7 @@
         <v>45</v>
       </c>
       <c r="I36" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J36" s="9">
         <v>20</v>
@@ -5718,7 +5369,7 @@
         <v>70</v>
       </c>
       <c r="M36" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N36" s="56">
         <f t="shared" si="1"/>
@@ -5732,7 +5383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:15">
+    <row r="37" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44">
         <v>36</v>
       </c>
@@ -5758,7 +5409,7 @@
         <v>45</v>
       </c>
       <c r="I37" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J37" s="9">
         <v>20</v>
@@ -5770,7 +5421,7 @@
         <v>70</v>
       </c>
       <c r="M37" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N37" s="56">
         <f t="shared" si="1"/>
@@ -5781,7 +5432,7 @@
         <v>-259.8</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:15">
+    <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44">
         <v>37</v>
       </c>
@@ -5807,7 +5458,7 @@
         <v>45</v>
       </c>
       <c r="I38" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J38" s="9">
         <v>20</v>
@@ -5819,7 +5470,7 @@
         <v>70</v>
       </c>
       <c r="M38" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N38" s="56">
         <f t="shared" si="1"/>
@@ -5830,7 +5481,7 @@
         <v>-434.8</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:15">
+    <row r="39" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44">
         <v>38</v>
       </c>
@@ -5856,7 +5507,7 @@
         <v>45</v>
       </c>
       <c r="I39" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J39" s="9">
         <v>20</v>
@@ -5868,7 +5519,7 @@
         <v>70</v>
       </c>
       <c r="M39" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N39" s="56">
         <f t="shared" si="1"/>
@@ -5876,10 +5527,10 @@
       </c>
       <c r="O39" s="27">
         <f>$Q$42+128+175*2</f>
-        <v>-609.8</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:15">
+        <v>-609.79999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44">
         <v>39</v>
       </c>
@@ -5905,7 +5556,7 @@
         <v>45</v>
       </c>
       <c r="I40" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J40" s="9">
         <v>20</v>
@@ -5917,7 +5568,7 @@
         <v>70</v>
       </c>
       <c r="M40" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N40" s="56">
         <f t="shared" si="1"/>
@@ -5928,7 +5579,7 @@
         <v>-784.8</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:15">
+    <row r="41" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44">
         <v>40</v>
       </c>
@@ -5954,7 +5605,7 @@
         <v>45</v>
       </c>
       <c r="I41" s="55">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J41" s="9">
         <v>20</v>
@@ -5966,7 +5617,7 @@
         <v>70</v>
       </c>
       <c r="M41" s="46">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N41" s="56">
         <f t="shared" si="1"/>
@@ -5977,15 +5628,15 @@
         <v>-959.8</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:19">
+    <row r="42" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="50">
         <v>41</v>
       </c>
       <c r="B42" s="47">
-        <v>1450.3893643083</v>
+        <v>1450.3893643082999</v>
       </c>
       <c r="C42" s="47">
-        <v>-1243.35056971497</v>
+        <v>-1243.3505697149701</v>
       </c>
       <c r="D42" s="42">
         <v>230</v>
@@ -6003,7 +5654,7 @@
         <v>45</v>
       </c>
       <c r="I42" s="40">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J42" s="42">
         <v>20</v>
@@ -6015,7 +5666,7 @@
         <v>70</v>
       </c>
       <c r="M42" s="43">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N42" s="27">
         <f>$P$42-R42*COS(40/180*PI())-S42*SIN(40/180*PI())</f>
@@ -6038,7 +5689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:19">
+    <row r="43" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="50">
         <v>42</v>
       </c>
@@ -6064,7 +5715,7 @@
         <v>45</v>
       </c>
       <c r="I43" s="40">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J43" s="42">
         <v>20</v>
@@ -6076,7 +5727,7 @@
         <v>70</v>
       </c>
       <c r="M43" s="43">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N43" s="27">
         <f>$P$42-R43*COS(40/180*PI())-S43*SIN(40/180*PI())</f>
@@ -6093,15 +5744,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:19">
+    <row r="44" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="50">
         <v>43</v>
       </c>
       <c r="B44" s="47">
-        <v>1218.98582482115</v>
+        <v>1218.9858248211499</v>
       </c>
       <c r="C44" s="47">
-        <v>-1519.1265692378</v>
+        <v>-1519.1265692377999</v>
       </c>
       <c r="D44" s="42">
         <v>230</v>
@@ -6119,7 +5770,7 @@
         <v>45</v>
       </c>
       <c r="I44" s="40">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="J44" s="42">
         <v>20</v>
@@ -6131,7 +5782,7 @@
         <v>70</v>
       </c>
       <c r="M44" s="43">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="N44" s="27">
         <f>$P$42-R44*COS(40/180*PI())-S44*SIN(40/180*PI())</f>
@@ -6139,7 +5790,7 @@
       </c>
       <c r="O44" s="27">
         <f>$Q$42-R44*SIN(40/180*PI())+S44*COS(40/180*PI())</f>
-        <v>-1415.6044378768</v>
+        <v>-1415.6044378767999</v>
       </c>
       <c r="R44" s="28">
         <v>535</v>
@@ -6148,7 +5799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:17">
+    <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="48">
         <v>44</v>
       </c>
@@ -6174,7 +5825,7 @@
         <v>60</v>
       </c>
       <c r="I45" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J45" s="6">
         <v>25</v>
@@ -6186,7 +5837,7 @@
         <v>30</v>
       </c>
       <c r="M45" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N45" s="27">
         <f>$P$45-17.5</f>
@@ -6203,7 +5854,7 @@
         <v>-1580.4</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:15">
+    <row r="46" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="48">
         <v>45</v>
       </c>
@@ -6229,7 +5880,7 @@
         <v>60</v>
       </c>
       <c r="I46" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J46" s="6">
         <v>25</v>
@@ -6241,7 +5892,7 @@
         <v>30</v>
       </c>
       <c r="M46" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N46" s="27">
         <f>$P$45-17.5-70</f>
@@ -6252,7 +5903,7 @@
         <v>-1602.4</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:15">
+    <row r="47" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="48">
         <v>46</v>
       </c>
@@ -6278,7 +5929,7 @@
         <v>60</v>
       </c>
       <c r="I47" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J47" s="6">
         <v>25</v>
@@ -6290,7 +5941,7 @@
         <v>30</v>
       </c>
       <c r="M47" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N47" s="27">
         <f>$P$45-17.5-70*2</f>
@@ -6301,7 +5952,7 @@
         <v>-1602.4</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:15">
+    <row r="48" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="48">
         <v>47</v>
       </c>
@@ -6327,7 +5978,7 @@
         <v>60</v>
       </c>
       <c r="I48" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J48" s="6">
         <v>25</v>
@@ -6339,7 +5990,7 @@
         <v>30</v>
       </c>
       <c r="M48" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N48" s="27">
         <f>$P$45-17.5-70*3</f>
@@ -6350,7 +6001,7 @@
         <v>-1602.4</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:15">
+    <row r="49" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="48">
         <v>48</v>
       </c>
@@ -6376,7 +6027,7 @@
         <v>60</v>
       </c>
       <c r="I49" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J49" s="6">
         <v>25</v>
@@ -6388,7 +6039,7 @@
         <v>30</v>
       </c>
       <c r="M49" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N49" s="27">
         <f>$P$45-17.5-70*4</f>
@@ -6399,7 +6050,7 @@
         <v>-1602.4</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:15">
+    <row r="50" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="48">
         <v>49</v>
       </c>
@@ -6425,7 +6076,7 @@
         <v>60</v>
       </c>
       <c r="I50" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J50" s="6">
         <v>25</v>
@@ -6437,7 +6088,7 @@
         <v>30</v>
       </c>
       <c r="M50" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N50" s="27">
         <f>$P$45-17.5-70*5</f>
@@ -6448,12 +6099,12 @@
         <v>-1602.4</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:15">
+    <row r="51" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="48">
         <v>50</v>
       </c>
       <c r="B51" s="49">
-        <v>632.8</v>
+        <v>632.79999999999995</v>
       </c>
       <c r="C51" s="49">
         <v>-1602.4</v>
@@ -6474,7 +6125,7 @@
         <v>60</v>
       </c>
       <c r="I51" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J51" s="6">
         <v>25</v>
@@ -6486,23 +6137,23 @@
         <v>30</v>
       </c>
       <c r="M51" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N51" s="27">
         <f>$P$45-17.5-70*6</f>
-        <v>632.8</v>
+        <v>632.79999999999995</v>
       </c>
       <c r="O51" s="27">
         <f t="shared" si="2"/>
         <v>-1602.4</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:15">
+    <row r="52" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="48">
         <v>51</v>
       </c>
       <c r="B52" s="49">
-        <v>562.8</v>
+        <v>562.79999999999995</v>
       </c>
       <c r="C52" s="49">
         <v>-1602.4</v>
@@ -6523,7 +6174,7 @@
         <v>60</v>
       </c>
       <c r="I52" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J52" s="6">
         <v>25</v>
@@ -6535,7 +6186,7 @@
         <v>30</v>
       </c>
       <c r="M52" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N52" s="27">
         <f>$P$45-17.5*7</f>
@@ -6546,7 +6197,7 @@
         <v>-1602.4</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:15">
+    <row r="53" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="48">
         <v>52</v>
       </c>
@@ -6572,7 +6223,7 @@
         <v>60</v>
       </c>
       <c r="I53" s="39">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="J53" s="6">
         <v>25</v>
@@ -6584,7 +6235,7 @@
         <v>30</v>
       </c>
       <c r="M53" s="39">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N53" s="27">
         <f>$P$45-17.5-70*8</f>
@@ -6595,15 +6246,15 @@
         <v>-1602.4</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="4:4">
+    <row r="58" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D58" s="28" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="O40" formula="1"/>
   </ignoredErrors>
@@ -6612,29 +6263,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.45" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.64166666666667" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.4666666666667" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.4609375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.61328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" style="27" customWidth="1"/>
     <col min="4" max="4" width="9" style="28"/>
-    <col min="5" max="5" width="7.81666666666667" style="28" customWidth="1"/>
-    <col min="6" max="6" width="9.01666666666667" style="28" customWidth="1"/>
-    <col min="7" max="7" width="6.95833333333333" style="28" customWidth="1"/>
-    <col min="8" max="8" width="8.04166666666667" style="29" customWidth="1"/>
+    <col min="5" max="5" width="7.84375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="9" style="28" customWidth="1"/>
+    <col min="7" max="7" width="6.921875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="8" style="29" customWidth="1"/>
     <col min="9" max="29" width="9" style="28"/>
-    <col min="30" max="16384" width="8.81666666666667" style="12"/>
+    <col min="30" max="16384" width="8.84375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:29">
+    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6659,29 +6309,8 @@
       <c r="H1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-    </row>
-    <row r="2" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -6695,40 +6324,19 @@
         <v>90</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H2" s="36">
         <v>0.105</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-    </row>
-    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -6742,40 +6350,20 @@
         <v>90</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H3" s="36">
         <v>0.105</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-    </row>
-    <row r="4" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -6789,40 +6377,20 @@
         <v>90</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H4" s="36">
         <v>0.105</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-    </row>
-    <row r="5" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -6836,40 +6404,20 @@
         <v>90</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H5" s="36">
         <v>0.105</v>
       </c>
       <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-    </row>
-    <row r="6" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -6883,40 +6431,20 @@
         <v>90</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H6" s="36">
         <v>0.105</v>
       </c>
       <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-    </row>
-    <row r="7" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -6930,40 +6458,20 @@
         <v>90</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H7" s="36">
         <v>0.105</v>
       </c>
       <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-    </row>
-    <row r="8" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -6977,40 +6485,20 @@
         <v>90</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H8" s="36">
         <v>0.105</v>
       </c>
       <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-    </row>
-    <row r="9" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34">
         <v>8</v>
       </c>
@@ -7024,40 +6512,20 @@
         <v>90</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H9" s="36">
         <v>0.105</v>
       </c>
       <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-    </row>
-    <row r="10" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34">
         <v>9</v>
       </c>
@@ -7071,40 +6539,20 @@
         <v>90</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H10" s="36">
         <v>0.105</v>
       </c>
       <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-    </row>
-    <row r="11" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34">
         <v>10</v>
       </c>
@@ -7118,40 +6566,20 @@
         <v>90</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H11" s="36">
         <v>0.105</v>
       </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-    </row>
-    <row r="12" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -7165,40 +6593,19 @@
         <v>90</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H12" s="36">
         <v>0.105</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-    </row>
-    <row r="13" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -7212,40 +6619,19 @@
         <v>90</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1">
-        <v>90</v>
+        <v>2.6</v>
       </c>
       <c r="H13" s="36">
         <v>0.105</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-    </row>
-    <row r="14" s="12" customFormat="1" customHeight="1" spans="1:29">
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -7262,37 +6648,16 @@
         <v>25</v>
       </c>
       <c r="F14" s="6">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6">
         <v>30</v>
       </c>
-      <c r="G14" s="6">
-        <v>50</v>
-      </c>
       <c r="H14" s="39">
-        <v>0.227</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-    </row>
-    <row r="15" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -7309,37 +6674,16 @@
         <v>25</v>
       </c>
       <c r="F15" s="6">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6">
         <v>30</v>
       </c>
-      <c r="G15" s="6">
-        <v>50</v>
-      </c>
       <c r="H15" s="39">
-        <v>0.227</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-    </row>
-    <row r="16" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -7356,37 +6700,16 @@
         <v>25</v>
       </c>
       <c r="F16" s="6">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6">
         <v>30</v>
       </c>
-      <c r="G16" s="6">
-        <v>50</v>
-      </c>
       <c r="H16" s="39">
-        <v>0.227</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-    </row>
-    <row r="17" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -7403,37 +6726,16 @@
         <v>25</v>
       </c>
       <c r="F17" s="6">
+        <v>50</v>
+      </c>
+      <c r="G17" s="6">
         <v>30</v>
       </c>
-      <c r="G17" s="6">
-        <v>50</v>
-      </c>
       <c r="H17" s="39">
-        <v>0.227</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-    </row>
-    <row r="18" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -7450,37 +6752,16 @@
         <v>25</v>
       </c>
       <c r="F18" s="6">
+        <v>50</v>
+      </c>
+      <c r="G18" s="6">
         <v>30</v>
       </c>
-      <c r="G18" s="6">
-        <v>50</v>
-      </c>
       <c r="H18" s="39">
-        <v>0.227</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-    </row>
-    <row r="19" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -7497,37 +6778,16 @@
         <v>25</v>
       </c>
       <c r="F19" s="6">
+        <v>50</v>
+      </c>
+      <c r="G19" s="6">
         <v>30</v>
       </c>
-      <c r="G19" s="6">
-        <v>50</v>
-      </c>
       <c r="H19" s="39">
-        <v>0.227</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-    </row>
-    <row r="20" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -7544,37 +6804,16 @@
         <v>25</v>
       </c>
       <c r="F20" s="6">
+        <v>50</v>
+      </c>
+      <c r="G20" s="6">
         <v>30</v>
       </c>
-      <c r="G20" s="6">
-        <v>50</v>
-      </c>
       <c r="H20" s="39">
-        <v>0.227</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-    </row>
-    <row r="21" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -7591,42 +6830,21 @@
         <v>25</v>
       </c>
       <c r="F21" s="6">
+        <v>50</v>
+      </c>
+      <c r="G21" s="6">
         <v>30</v>
       </c>
-      <c r="G21" s="6">
-        <v>50</v>
-      </c>
       <c r="H21" s="39">
-        <v>0.227</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-    </row>
-    <row r="22" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37">
         <v>21</v>
       </c>
       <c r="B22" s="38">
-        <v>1052.1</v>
+        <v>1052.0999999999999</v>
       </c>
       <c r="C22" s="38">
         <v>1604.2</v>
@@ -7638,42 +6856,21 @@
         <v>25</v>
       </c>
       <c r="F22" s="6">
+        <v>50</v>
+      </c>
+      <c r="G22" s="6">
         <v>30</v>
       </c>
-      <c r="G22" s="6">
-        <v>50</v>
-      </c>
       <c r="H22" s="39">
-        <v>0.227</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-    </row>
-    <row r="23" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40">
         <v>22</v>
       </c>
       <c r="B23" s="41">
-        <v>1217.36325795501</v>
+        <v>1217.3632579550101</v>
       </c>
       <c r="C23" s="41">
         <v>1521.32301438475</v>
@@ -7682,40 +6879,19 @@
         <v>320</v>
       </c>
       <c r="E23" s="42">
+        <v>55</v>
+      </c>
+      <c r="F23" s="42">
+        <v>70</v>
+      </c>
+      <c r="G23" s="42">
         <v>20</v>
       </c>
-      <c r="F23" s="42">
-        <v>55</v>
-      </c>
-      <c r="G23" s="42">
-        <v>70</v>
-      </c>
       <c r="H23" s="43">
-        <v>0.726</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-    </row>
-    <row r="24" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -7723,93 +6899,51 @@
         <v>1333.06502769859</v>
       </c>
       <c r="C24" s="41">
-        <v>1383.43501462333</v>
+        <v>1383.4350146233301</v>
       </c>
       <c r="D24" s="42">
         <v>320</v>
       </c>
       <c r="E24" s="42">
+        <v>55</v>
+      </c>
+      <c r="F24" s="42">
+        <v>70</v>
+      </c>
+      <c r="G24" s="42">
         <v>20</v>
       </c>
-      <c r="F24" s="42">
-        <v>55</v>
-      </c>
-      <c r="G24" s="42">
-        <v>70</v>
-      </c>
       <c r="H24" s="43">
-        <v>0.726</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-    </row>
-    <row r="25" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="40">
         <v>24</v>
       </c>
       <c r="B25" s="41">
-        <v>1448.76679744217</v>
+        <v>1448.7667974421699</v>
       </c>
       <c r="C25" s="41">
-        <v>1245.54701486191</v>
+        <v>1245.5470148619099</v>
       </c>
       <c r="D25" s="42">
         <v>320</v>
       </c>
       <c r="E25" s="42">
+        <v>55</v>
+      </c>
+      <c r="F25" s="42">
+        <v>70</v>
+      </c>
+      <c r="G25" s="42">
         <v>20</v>
       </c>
-      <c r="F25" s="42">
-        <v>55</v>
-      </c>
-      <c r="G25" s="42">
-        <v>70</v>
-      </c>
       <c r="H25" s="43">
-        <v>0.726</v>
-      </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-    </row>
-    <row r="26" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44">
         <v>25</v>
       </c>
@@ -7823,40 +6957,19 @@
         <v>270</v>
       </c>
       <c r="E26" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F26" s="9">
         <v>70</v>
       </c>
       <c r="G26" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H26" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-    </row>
-    <row r="27" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44">
         <v>26</v>
       </c>
@@ -7870,40 +6983,19 @@
         <v>270</v>
       </c>
       <c r="E27" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F27" s="9">
         <v>70</v>
       </c>
       <c r="G27" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H27" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-    </row>
-    <row r="28" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44">
         <v>27</v>
       </c>
@@ -7917,40 +7009,19 @@
         <v>270</v>
       </c>
       <c r="E28" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F28" s="9">
         <v>70</v>
       </c>
       <c r="G28" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H28" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-    </row>
-    <row r="29" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44">
         <v>28</v>
       </c>
@@ -7964,40 +7035,19 @@
         <v>270</v>
       </c>
       <c r="E29" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F29" s="9">
         <v>70</v>
       </c>
       <c r="G29" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H29" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-    </row>
-    <row r="30" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44">
         <v>29</v>
       </c>
@@ -8011,40 +7061,19 @@
         <v>270</v>
       </c>
       <c r="E30" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F30" s="9">
         <v>70</v>
       </c>
       <c r="G30" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H30" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-    </row>
-    <row r="31" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44">
         <v>30</v>
       </c>
@@ -8058,40 +7087,19 @@
         <v>270</v>
       </c>
       <c r="E31" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F31" s="9">
         <v>70</v>
       </c>
       <c r="G31" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H31" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-    </row>
-    <row r="32" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44">
         <v>31</v>
       </c>
@@ -8105,40 +7113,19 @@
         <v>270</v>
       </c>
       <c r="E32" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F32" s="9">
         <v>70</v>
       </c>
       <c r="G32" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H32" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-    </row>
-    <row r="33" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44">
         <v>32</v>
       </c>
@@ -8152,40 +7139,19 @@
         <v>270</v>
       </c>
       <c r="E33" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F33" s="9">
         <v>70</v>
       </c>
       <c r="G33" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H33" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-    </row>
-    <row r="34" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44">
         <v>33</v>
       </c>
@@ -8199,40 +7165,19 @@
         <v>270</v>
       </c>
       <c r="E34" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F34" s="9">
         <v>70</v>
       </c>
       <c r="G34" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H34" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-    </row>
-    <row r="35" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44">
         <v>34</v>
       </c>
@@ -8246,40 +7191,19 @@
         <v>270</v>
       </c>
       <c r="E35" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F35" s="9">
         <v>70</v>
       </c>
       <c r="G35" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H35" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-    </row>
-    <row r="36" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44">
         <v>35</v>
       </c>
@@ -8293,40 +7217,19 @@
         <v>270</v>
       </c>
       <c r="E36" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F36" s="9">
         <v>70</v>
       </c>
       <c r="G36" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H36" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-    </row>
-    <row r="37" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44">
         <v>36</v>
       </c>
@@ -8340,87 +7243,45 @@
         <v>270</v>
       </c>
       <c r="E37" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F37" s="9">
         <v>70</v>
       </c>
       <c r="G37" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H37" s="46">
-        <v>0.726</v>
-      </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-    </row>
-    <row r="38" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40">
         <v>37</v>
       </c>
       <c r="B38" s="47">
-        <v>1450.3893643083</v>
+        <v>1450.3893643082999</v>
       </c>
       <c r="C38" s="47">
-        <v>-1243.35056971497</v>
+        <v>-1243.3505697149701</v>
       </c>
       <c r="D38" s="42">
         <v>220</v>
       </c>
       <c r="E38" s="42">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F38" s="42">
         <v>70</v>
       </c>
       <c r="G38" s="42">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H38" s="43">
-        <v>0.726</v>
-      </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-    </row>
-    <row r="39" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40">
         <v>38</v>
       </c>
@@ -8434,87 +7295,45 @@
         <v>220</v>
       </c>
       <c r="E39" s="42">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F39" s="42">
         <v>70</v>
       </c>
       <c r="G39" s="42">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H39" s="43">
-        <v>0.726</v>
-      </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-    </row>
-    <row r="40" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40">
         <v>39</v>
       </c>
       <c r="B40" s="47">
-        <v>1218.98582482115</v>
+        <v>1218.9858248211499</v>
       </c>
       <c r="C40" s="47">
-        <v>-1519.1265692378</v>
+        <v>-1519.1265692377999</v>
       </c>
       <c r="D40" s="42">
         <v>220</v>
       </c>
       <c r="E40" s="42">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F40" s="42">
         <v>70</v>
       </c>
       <c r="G40" s="42">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H40" s="43">
-        <v>0.726</v>
-      </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-    </row>
-    <row r="41" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="48">
         <v>40</v>
       </c>
@@ -8531,37 +7350,16 @@
         <v>25</v>
       </c>
       <c r="F41" s="11">
+        <v>50</v>
+      </c>
+      <c r="G41" s="11">
         <v>30</v>
       </c>
-      <c r="G41" s="11">
-        <v>50</v>
-      </c>
       <c r="H41" s="11">
-        <v>0.227</v>
-      </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-    </row>
-    <row r="42" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="48">
         <v>41</v>
       </c>
@@ -8578,37 +7376,16 @@
         <v>25</v>
       </c>
       <c r="F42" s="11">
+        <v>50</v>
+      </c>
+      <c r="G42" s="11">
         <v>30</v>
       </c>
-      <c r="G42" s="11">
-        <v>50</v>
-      </c>
       <c r="H42" s="11">
-        <v>0.227</v>
-      </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-    </row>
-    <row r="43" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="48">
         <v>42</v>
       </c>
@@ -8625,37 +7402,16 @@
         <v>25</v>
       </c>
       <c r="F43" s="11">
+        <v>50</v>
+      </c>
+      <c r="G43" s="11">
         <v>30</v>
       </c>
-      <c r="G43" s="11">
-        <v>50</v>
-      </c>
       <c r="H43" s="11">
-        <v>0.227</v>
-      </c>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-    </row>
-    <row r="44" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="48">
         <v>43</v>
       </c>
@@ -8672,37 +7428,16 @@
         <v>25</v>
       </c>
       <c r="F44" s="11">
+        <v>50</v>
+      </c>
+      <c r="G44" s="11">
         <v>30</v>
       </c>
-      <c r="G44" s="11">
-        <v>50</v>
-      </c>
       <c r="H44" s="11">
-        <v>0.227</v>
-      </c>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-    </row>
-    <row r="45" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="48">
         <v>44</v>
       </c>
@@ -8719,37 +7454,16 @@
         <v>25</v>
       </c>
       <c r="F45" s="11">
+        <v>50</v>
+      </c>
+      <c r="G45" s="11">
         <v>30</v>
       </c>
-      <c r="G45" s="11">
-        <v>50</v>
-      </c>
       <c r="H45" s="11">
-        <v>0.227</v>
-      </c>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-    </row>
-    <row r="46" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="48">
         <v>45</v>
       </c>
@@ -8766,42 +7480,21 @@
         <v>25</v>
       </c>
       <c r="F46" s="11">
+        <v>50</v>
+      </c>
+      <c r="G46" s="11">
         <v>30</v>
       </c>
-      <c r="G46" s="11">
-        <v>50</v>
-      </c>
       <c r="H46" s="11">
-        <v>0.227</v>
-      </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-    </row>
-    <row r="47" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="48">
         <v>46</v>
       </c>
       <c r="B47" s="49">
-        <v>632.8</v>
+        <v>632.79999999999995</v>
       </c>
       <c r="C47" s="49">
         <v>-1602.4</v>
@@ -8813,42 +7506,21 @@
         <v>25</v>
       </c>
       <c r="F47" s="11">
+        <v>50</v>
+      </c>
+      <c r="G47" s="11">
         <v>30</v>
       </c>
-      <c r="G47" s="11">
-        <v>50</v>
-      </c>
       <c r="H47" s="11">
-        <v>0.227</v>
-      </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-    </row>
-    <row r="48" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="48">
         <v>47</v>
       </c>
       <c r="B48" s="49">
-        <v>562.8</v>
+        <v>562.79999999999995</v>
       </c>
       <c r="C48" s="49">
         <v>-1602.4</v>
@@ -8860,37 +7532,16 @@
         <v>25</v>
       </c>
       <c r="F48" s="11">
+        <v>50</v>
+      </c>
+      <c r="G48" s="11">
         <v>30</v>
       </c>
-      <c r="G48" s="11">
-        <v>50</v>
-      </c>
       <c r="H48" s="11">
-        <v>0.227</v>
-      </c>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-    </row>
-    <row r="49" s="12" customFormat="1" customHeight="1" spans="1:29">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="48">
         <v>48</v>
       </c>
@@ -8907,66 +7558,44 @@
         <v>25</v>
       </c>
       <c r="F49" s="11">
+        <v>50</v>
+      </c>
+      <c r="G49" s="11">
         <v>30</v>
       </c>
-      <c r="G49" s="11">
-        <v>50</v>
-      </c>
       <c r="H49" s="11">
-        <v>0.227</v>
-      </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
+        <v>0.22700000000000001</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="95" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="13.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="12" customWidth="1"/>
-    <col min="4" max="5" width="9.375" style="12"/>
+    <col min="2" max="2" width="13.84375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.61328125" style="12" customWidth="1"/>
+    <col min="4" max="5" width="9.3828125" style="12"/>
     <col min="6" max="7" width="9" style="12"/>
-    <col min="8" max="8" width="11.5" style="12"/>
+    <col min="8" max="8" width="11.4609375" style="12"/>
     <col min="9" max="9" width="9" style="12"/>
-    <col min="10" max="10" width="9.375" style="12"/>
+    <col min="10" max="10" width="9.3828125" style="12"/>
     <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="14">
         <v>15</v>
       </c>
@@ -9001,7 +7630,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>118</v>
       </c>
@@ -9012,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="18">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E2" s="18">
-        <v>0.3653</v>
+        <v>0.36530000000000001</v>
       </c>
       <c r="F2" s="16">
         <v>4</v>
@@ -9027,7 +7656,7 @@
         <v>306</v>
       </c>
       <c r="I2" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>119</v>
@@ -9036,21 +7665,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="15">
-        <v>0.273109</v>
+        <v>0.27310899999999999</v>
       </c>
       <c r="C3" s="17">
         <v>1.375</v>
       </c>
       <c r="D3" s="18">
-        <v>0.0667</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="E3" s="18">
-        <v>0.3653</v>
+        <v>0.36530000000000001</v>
       </c>
       <c r="F3" s="16">
         <v>4</v>
@@ -9062,7 +7691,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>119</v>
@@ -9071,21 +7700,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="15">
-        <v>0.2732105</v>
+        <v>0.27321050000000002</v>
       </c>
       <c r="C4" s="17">
         <v>-1.375</v>
       </c>
       <c r="D4" s="18">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E4" s="18">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="F4" s="16">
         <v>4</v>
@@ -9097,7 +7726,7 @@
         <v>46</v>
       </c>
       <c r="I4" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>119</v>
@@ -9106,18 +7735,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="15">
-        <v>0.5398515</v>
+        <v>0.53985150000000004</v>
       </c>
       <c r="C5" s="17">
         <v>1.794</v>
       </c>
       <c r="D5" s="21">
-        <v>0.171</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E5" s="21">
         <v>0.12</v>
@@ -9132,7 +7761,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>123</v>
@@ -9141,18 +7770,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B6" s="15">
-        <v>0.54005925</v>
+        <v>0.54005924999999999</v>
       </c>
       <c r="C6" s="17">
         <v>-1.794</v>
       </c>
       <c r="D6" s="21">
-        <v>0.171</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E6" s="21">
         <v>0.12</v>
@@ -9167,7 +7796,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>123</v>
@@ -9176,18 +7805,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B7" s="15">
-        <v>1.03976875</v>
+        <v>1.0397687499999999</v>
       </c>
       <c r="C7" s="17">
         <v>1.794</v>
       </c>
       <c r="D7" s="21">
-        <v>0.1715</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="E7" s="21">
         <v>0.1197</v>
@@ -9202,7 +7831,7 @@
         <v>23</v>
       </c>
       <c r="I7" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>126</v>
@@ -9211,18 +7840,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B8" s="15">
-        <v>1.03978325</v>
+        <v>1.0397832499999999</v>
       </c>
       <c r="C8" s="17">
         <v>-1.794</v>
       </c>
       <c r="D8" s="21">
-        <v>0.1715</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="E8" s="21">
         <v>0.1198</v>
@@ -9237,7 +7866,7 @@
         <v>23</v>
       </c>
       <c r="I8" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>126</v>
@@ -9246,7 +7875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>128</v>
       </c>
@@ -9254,13 +7883,13 @@
         <v>1.68563675</v>
       </c>
       <c r="C9" s="22">
-        <v>1.376</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="D9" s="18">
-        <v>0.1185</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="E9" s="18">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F9" s="16">
         <v>4</v>
@@ -9272,7 +7901,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>129</v>
@@ -9281,18 +7910,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="22">
-        <v>1.6861155</v>
+        <v>1.6861155000000001</v>
       </c>
       <c r="C10" s="22">
-        <v>-1.376</v>
+        <v>-1.3759999999999999</v>
       </c>
       <c r="D10" s="18">
-        <v>0.1185</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="E10" s="18">
         <v>0.1741</v>
@@ -9307,7 +7936,7 @@
         <v>22</v>
       </c>
       <c r="I10" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>129</v>
@@ -9316,18 +7945,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B11" s="22">
-        <v>2.1087845</v>
+        <v>2.1087845000000001</v>
       </c>
       <c r="C11" s="22">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D11" s="18">
-        <v>0.156066</v>
+        <v>0.15606600000000001</v>
       </c>
       <c r="E11" s="18">
         <v>0.215</v>
@@ -9342,7 +7971,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>123</v>
@@ -9351,18 +7980,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="22">
-        <v>2.10914375</v>
+        <v>2.1091437499999999</v>
       </c>
       <c r="C12" s="22">
-        <v>-0.445</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="D12" s="18">
-        <v>0.155487</v>
+        <v>0.15548699999999999</v>
       </c>
       <c r="E12" s="18">
         <v>0.215</v>
@@ -9377,7 +8006,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>123</v>
@@ -9386,21 +8015,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B13" s="24">
-        <v>1.099562</v>
+        <v>1.0995619999999999</v>
       </c>
       <c r="C13" s="24">
         <v>0.9</v>
       </c>
       <c r="D13" s="24">
-        <v>0.056124</v>
+        <v>5.6124E-2</v>
       </c>
       <c r="E13" s="24">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F13" s="25">
         <v>2</v>
@@ -9412,7 +8041,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>119</v>
@@ -9421,7 +8050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>134</v>
       </c>
@@ -9432,10 +8061,10 @@
         <v>-0.9</v>
       </c>
       <c r="D14" s="24">
-        <v>0.057021</v>
+        <v>5.7021000000000002E-2</v>
       </c>
       <c r="E14" s="24">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F14" s="25">
         <v>2</v>
@@ -9447,7 +8076,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>119</v>
@@ -9456,7 +8085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>135</v>
       </c>
@@ -9464,10 +8093,10 @@
         <v>1.025943</v>
       </c>
       <c r="C15" s="24">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D15" s="24">
-        <v>0.02007</v>
+        <v>2.0070000000000001E-2</v>
       </c>
       <c r="E15" s="24">
         <v>0.2</v>
@@ -9482,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="16">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>119</v>
@@ -9491,7 +8120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>136</v>
       </c>
@@ -9499,10 +8128,10 @@
         <v>1.025943</v>
       </c>
       <c r="C16" s="24">
-        <v>-0.895</v>
+        <v>-0.89500000000000002</v>
       </c>
       <c r="D16" s="24">
-        <v>0.02007</v>
+        <v>2.0070000000000001E-2</v>
       </c>
       <c r="E16" s="24">
         <v>0.2</v>
@@ -9517,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="16">
-        <v>60</v>
+        <v>-30</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>119</v>
@@ -9527,844 +8156,2045 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1971A5-2151-4FD2-A1AD-664A08756459}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="12" customWidth="1"/>
+    <col min="2" max="3" width="10" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10" style="76" customWidth="1"/>
+    <col min="6" max="6" width="12.69140625" style="76"/>
+    <col min="7" max="8" width="9.23046875" style="76"/>
+    <col min="9" max="9" width="8.61328125" style="12"/>
+    <col min="10" max="10" width="8.3046875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="61">
+        <v>0.03</v>
+      </c>
+      <c r="B2" s="61">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>354.5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-1576.5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>354.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1401.5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.085</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>354.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-1226.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.085</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-1050</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.085</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-875</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="C2" s="62">
+        <v>0.156</v>
+      </c>
+      <c r="D2" s="62">
+        <v>0</v>
+      </c>
+      <c r="E2" s="77">
+        <v>0</v>
+      </c>
+      <c r="F2" s="77">
+        <v>1645</v>
+      </c>
+      <c r="G2" s="77">
+        <v>0</v>
+      </c>
+      <c r="H2" s="77">
+        <v>1675</v>
+      </c>
+      <c r="I2" s="63">
+        <v>0</v>
+      </c>
+      <c r="J2" s="63">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="61">
+        <v>0.03</v>
+      </c>
+      <c r="B3" s="61">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="C3" s="62">
+        <v>0.156</v>
+      </c>
+      <c r="D3" s="62">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="E3" s="77">
+        <v>1162.5</v>
+      </c>
+      <c r="F3" s="77">
+        <v>1645</v>
+      </c>
+      <c r="G3" s="77">
+        <v>1176.43</v>
+      </c>
+      <c r="H3" s="77">
+        <v>1675</v>
+      </c>
+      <c r="I3" s="63">
+        <v>430</v>
+      </c>
+      <c r="J3" s="63">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="61">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B4" s="61">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="C4" s="62">
+        <v>0.159</v>
+      </c>
+      <c r="D4" s="62">
+        <v>1.879</v>
+      </c>
+      <c r="E4" s="77">
+        <v>1561</v>
+      </c>
+      <c r="F4" s="77">
+        <v>1170</v>
+      </c>
+      <c r="G4" s="77">
+        <v>1575</v>
+      </c>
+      <c r="H4" s="77">
+        <v>1200</v>
+      </c>
+      <c r="I4" s="63">
+        <v>430</v>
+      </c>
+      <c r="J4" s="63">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="61">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B5" s="61">
+        <v>2.12</v>
+      </c>
+      <c r="C5" s="62">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="D5" s="62">
+        <v>1.88</v>
+      </c>
+      <c r="E5" s="77">
+        <v>1655</v>
+      </c>
+      <c r="F5" s="77">
+        <v>1170</v>
+      </c>
+      <c r="G5" s="77">
+        <v>1675</v>
+      </c>
+      <c r="H5" s="77">
+        <v>1200</v>
+      </c>
+      <c r="I5" s="63">
+        <v>392</v>
+      </c>
+      <c r="J5" s="63">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="61">
+        <v>0.245</v>
+      </c>
+      <c r="B6" s="61">
+        <v>2.12</v>
+      </c>
+      <c r="C6" s="62">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="D6" s="62">
+        <v>2.125</v>
+      </c>
+      <c r="E6" s="77">
+        <v>1655</v>
+      </c>
+      <c r="F6" s="77">
+        <v>-1170</v>
+      </c>
+      <c r="G6" s="77">
+        <v>1675</v>
+      </c>
+      <c r="H6" s="77">
+        <v>-1200</v>
+      </c>
+      <c r="I6" s="63">
+        <v>352</v>
+      </c>
+      <c r="J6" s="63">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="61">
+        <v>0.245</v>
+      </c>
+      <c r="B7" s="61">
+        <v>2.298</v>
+      </c>
+      <c r="C7" s="62">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="D7" s="62">
+        <v>2.125</v>
+      </c>
+      <c r="E7" s="77">
+        <v>1561</v>
+      </c>
+      <c r="F7" s="77">
+        <v>-1170</v>
+      </c>
+      <c r="G7" s="77">
+        <v>1575</v>
+      </c>
+      <c r="H7" s="77">
+        <v>-1200</v>
+      </c>
+      <c r="I7" s="63">
+        <v>352</v>
+      </c>
+      <c r="J7" s="63">
+        <v>1220.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="61">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="B8" s="61">
+        <v>2.298</v>
+      </c>
+      <c r="C8" s="62">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="D8" s="62">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="E8" s="77">
+        <v>1162.5</v>
+      </c>
+      <c r="F8" s="77">
+        <v>-1645</v>
+      </c>
+      <c r="G8" s="77">
+        <v>1176.43</v>
+      </c>
+      <c r="H8" s="77">
+        <v>-1675</v>
+      </c>
+      <c r="I8" s="63">
+        <v>340.30200000000002</v>
+      </c>
+      <c r="J8" s="63">
+        <v>1188.4000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="61">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="B9" s="61">
+        <v>2.125</v>
+      </c>
+      <c r="C9" s="62">
+        <v>0.61</v>
+      </c>
+      <c r="D9" s="62">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="E9" s="77">
+        <v>0</v>
+      </c>
+      <c r="F9" s="77">
+        <v>-1645</v>
+      </c>
+      <c r="G9" s="77">
+        <v>0</v>
+      </c>
+      <c r="H9" s="77">
+        <v>-1675</v>
+      </c>
+      <c r="I9" s="63">
+        <v>340.3</v>
+      </c>
+      <c r="J9" s="63">
+        <v>1188.4000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="61">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="B10" s="61">
+        <v>2.085</v>
+      </c>
+      <c r="C10" s="62">
+        <v>0.61</v>
+      </c>
+      <c r="D10" s="62">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="63">
+        <v>288.7</v>
+      </c>
+      <c r="J10" s="63">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="61">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="B11" s="61">
+        <v>2.085</v>
+      </c>
+      <c r="C11" s="62">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="D11" s="62">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="63">
+        <v>250</v>
+      </c>
+      <c r="J11" s="63">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="61">
+        <v>1.625</v>
+      </c>
+      <c r="B12" s="61">
+        <v>2.0019399999999998</v>
+      </c>
+      <c r="C12" s="62">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="D12" s="62">
+        <v>1.89801</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="63">
+        <v>250</v>
+      </c>
+      <c r="J12" s="63">
+        <v>-1138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="61">
+        <v>1.8519399999999999</v>
+      </c>
+      <c r="B13" s="61">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="C13" s="62">
+        <v>1.7480100000000001</v>
+      </c>
+      <c r="D13" s="62">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="63">
+        <v>288.7</v>
+      </c>
+      <c r="J13" s="63">
+        <v>-1138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="61">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="B14" s="61">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="C14" s="62">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="D14" s="62">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="63">
+        <v>340.3</v>
+      </c>
+      <c r="J14" s="63">
+        <v>-1188.4000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="61">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="B15" s="61">
+        <v>0</v>
+      </c>
+      <c r="C15" s="62">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="D15" s="62">
+        <v>0</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="63">
+        <v>340.30200000000002</v>
+      </c>
+      <c r="J15" s="63">
+        <v>-1188.4000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="61">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="B16" s="61">
+        <v>-1.4650000000000001</v>
+      </c>
+      <c r="C16" s="62">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="D16" s="62">
+        <v>-1.4650000000000001</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="63">
+        <v>352</v>
+      </c>
+      <c r="J16" s="63">
+        <v>-1220.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="61">
+        <v>1.8519399999999999</v>
+      </c>
+      <c r="B17" s="61">
+        <v>-1.7749999999999999</v>
+      </c>
+      <c r="C17" s="62">
+        <v>1.7480100000000001</v>
+      </c>
+      <c r="D17" s="62">
+        <v>-1.7150000000000001</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="63">
+        <v>352</v>
+      </c>
+      <c r="J17" s="63">
+        <v>-1580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="61">
+        <v>1.625</v>
+      </c>
+      <c r="B18" s="61">
+        <v>-2.0019399999999998</v>
+      </c>
+      <c r="C18" s="62">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="D18" s="62">
+        <v>-1.89801</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="63">
+        <v>392</v>
+      </c>
+      <c r="J18" s="63">
+        <v>-1620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="61">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="B19" s="61">
+        <v>-2.085</v>
+      </c>
+      <c r="C19" s="62">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="D19" s="62">
+        <v>-1.9650000000000001</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="63">
+        <v>430</v>
+      </c>
+      <c r="J19" s="63">
+        <v>-1620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="61">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="B20" s="61">
+        <v>-2.085</v>
+      </c>
+      <c r="C20" s="62">
+        <v>0.61</v>
+      </c>
+      <c r="D20" s="62">
+        <v>-1.9650000000000001</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="63">
+        <v>430</v>
+      </c>
+      <c r="J20" s="63">
+        <v>-1645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="61">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="B21" s="61">
+        <v>-2.125</v>
+      </c>
+      <c r="C21" s="62">
+        <v>0.61</v>
+      </c>
+      <c r="D21" s="62">
+        <v>-2.0249999999999999</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="63">
+        <v>0</v>
+      </c>
+      <c r="J21" s="63">
+        <v>-1645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="61">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="B22" s="61">
+        <v>-2.298</v>
+      </c>
+      <c r="C22" s="62">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="D22" s="62">
+        <v>-2.0249999999999999</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="61">
+        <v>0.245</v>
+      </c>
+      <c r="B23" s="61">
+        <v>-2.298</v>
+      </c>
+      <c r="C23" s="62">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="D23" s="62">
+        <v>-2.125</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="61">
+        <v>0.245</v>
+      </c>
+      <c r="B24" s="61">
+        <v>-2.12</v>
+      </c>
+      <c r="C24" s="62">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="D24" s="62">
+        <v>-2.125</v>
+      </c>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="61">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B25" s="61">
+        <v>-2.12</v>
+      </c>
+      <c r="C25" s="62">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="D25" s="62">
+        <v>-1.88</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="61">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B26" s="61">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="C26" s="62">
+        <v>0.159</v>
+      </c>
+      <c r="D26" s="62">
+        <v>-1.879</v>
+      </c>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="61">
+        <v>0.03</v>
+      </c>
+      <c r="B27" s="61">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="C27" s="62">
+        <v>0.156</v>
+      </c>
+      <c r="D27" s="62">
+        <v>-1.8640000000000001</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="61">
+        <v>0.03</v>
+      </c>
+      <c r="B28" s="61">
+        <v>0</v>
+      </c>
+      <c r="C28" s="62">
+        <v>0.156</v>
+      </c>
+      <c r="D28" s="62">
+        <v>0</v>
+      </c>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D99B9F7-1246-4349-B4B1-6F54B20DCAF3}">
+  <dimension ref="A1:I140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="5" width="9.23046875" style="73"/>
+    <col min="6" max="6" width="9.23046875" style="74"/>
+    <col min="7" max="7" width="11.84375" style="74" customWidth="1"/>
+    <col min="8" max="8" width="8.3046875" style="69"/>
+    <col min="9" max="9" width="9.15234375" style="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="87"/>
+      <c r="B1" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="87"/>
+      <c r="B2" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="66">
+        <v>757.5</v>
+      </c>
+      <c r="C3" s="66">
+        <v>1645</v>
+      </c>
+      <c r="D3" s="66">
+        <v>760</v>
+      </c>
+      <c r="E3" s="66">
+        <v>1645</v>
+      </c>
+      <c r="F3" s="67">
+        <v>723</v>
+      </c>
+      <c r="G3" s="68">
+        <v>1645</v>
+      </c>
+      <c r="H3" s="69">
+        <v>725</v>
+      </c>
+      <c r="I3" s="68">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="85"/>
+      <c r="B4" s="66">
+        <v>757.5</v>
+      </c>
+      <c r="C4" s="66">
+        <v>1770</v>
+      </c>
+      <c r="D4" s="66">
+        <v>760</v>
+      </c>
+      <c r="E4" s="66">
+        <v>1790</v>
+      </c>
+      <c r="F4" s="67">
+        <v>723</v>
+      </c>
+      <c r="G4" s="68">
+        <v>1770.5</v>
+      </c>
+      <c r="H4" s="69">
+        <v>725</v>
+      </c>
+      <c r="I4" s="69">
+        <v>1794.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="85"/>
+      <c r="B5" s="66">
+        <v>735</v>
+      </c>
+      <c r="C5" s="66">
+        <v>1770</v>
+      </c>
+      <c r="D5" s="66">
+        <v>840</v>
+      </c>
+      <c r="E5" s="66">
+        <v>1790</v>
+      </c>
+      <c r="F5" s="67">
+        <v>699</v>
+      </c>
+      <c r="G5" s="68">
+        <v>1770.5</v>
+      </c>
+      <c r="H5" s="69">
+        <v>875</v>
+      </c>
+      <c r="I5" s="69">
+        <v>1794.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="85"/>
+      <c r="B6" s="66">
+        <v>735</v>
+      </c>
+      <c r="C6" s="66">
+        <v>1808</v>
+      </c>
+      <c r="D6" s="66">
+        <v>840</v>
+      </c>
+      <c r="E6" s="66">
+        <v>1645</v>
+      </c>
+      <c r="F6" s="67">
+        <v>699</v>
+      </c>
+      <c r="G6" s="68">
+        <v>1816.5</v>
+      </c>
+      <c r="H6" s="69">
+        <v>875</v>
+      </c>
+      <c r="I6" s="68">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="85"/>
+      <c r="B7" s="66">
+        <v>865</v>
+      </c>
+      <c r="C7" s="66">
+        <v>1808</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67">
+        <v>901</v>
+      </c>
+      <c r="G7" s="68">
+        <v>1816.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="85"/>
+      <c r="B8" s="66">
+        <v>865</v>
+      </c>
+      <c r="C8" s="66">
+        <v>1770</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67">
+        <v>901</v>
+      </c>
+      <c r="G8" s="68">
+        <v>1770.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="85"/>
+      <c r="B9" s="66">
+        <v>842.5</v>
+      </c>
+      <c r="C9" s="66">
+        <v>1770</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67">
+        <v>877</v>
+      </c>
+      <c r="G9" s="68">
+        <v>1770.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="85"/>
+      <c r="B10" s="66">
+        <v>842.5</v>
+      </c>
+      <c r="C10" s="66">
+        <v>1645</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67">
+        <v>877</v>
+      </c>
+      <c r="G10" s="68">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="66">
+        <v>1187.46</v>
+      </c>
+      <c r="C11" s="66">
+        <v>1630.74</v>
+      </c>
+      <c r="D11" s="66">
+        <v>1193.8900000000001</v>
+      </c>
+      <c r="E11" s="66">
+        <v>1623.08</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="70"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="86"/>
+      <c r="B12" s="66">
+        <v>1274.79</v>
+      </c>
+      <c r="C12" s="66">
+        <v>1704.01</v>
+      </c>
+      <c r="D12" s="66">
+        <v>1306.3399999999999</v>
+      </c>
+      <c r="E12" s="66">
+        <v>1717.44</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="70"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="86"/>
+      <c r="B13" s="66">
+        <v>1255.51</v>
+      </c>
+      <c r="C13" s="66">
+        <v>1727</v>
+      </c>
+      <c r="D13" s="66">
+        <v>1531.32</v>
+      </c>
+      <c r="E13" s="66">
+        <v>1449.32</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="70"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="86"/>
+      <c r="B14" s="66">
+        <v>1301.6199999999999</v>
+      </c>
+      <c r="C14" s="66">
+        <v>1765.69</v>
+      </c>
+      <c r="D14" s="66">
+        <v>1418.86</v>
+      </c>
+      <c r="E14" s="66">
+        <v>1354.96</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="70"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="86"/>
+      <c r="B15" s="66">
+        <v>1578.02</v>
+      </c>
+      <c r="C15" s="66">
+        <v>1436.29</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="70"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="86"/>
+      <c r="B16" s="66">
+        <v>1531.91</v>
+      </c>
+      <c r="C16" s="66">
+        <v>1397.6</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="70"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="86"/>
+      <c r="B17" s="66">
+        <v>1512.62</v>
+      </c>
+      <c r="C17" s="66">
+        <v>1420.58</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="70"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="86"/>
+      <c r="B18" s="66">
+        <v>1425.29</v>
+      </c>
+      <c r="C18" s="66">
+        <v>1347.3</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="66">
+        <v>1665.3</v>
+      </c>
+      <c r="C19" s="71">
+        <v>1110</v>
+      </c>
+      <c r="D19" s="66">
+        <v>1655</v>
+      </c>
+      <c r="E19" s="66">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="87"/>
+      <c r="B20" s="66">
+        <v>1772</v>
+      </c>
+      <c r="C20" s="71">
+        <v>1110</v>
+      </c>
+      <c r="D20" s="66">
+        <v>1791</v>
+      </c>
+      <c r="E20" s="66">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="87"/>
+      <c r="B21" s="66">
+        <v>1772</v>
+      </c>
+      <c r="C21" s="71">
+        <v>1148.5</v>
+      </c>
+      <c r="D21" s="66">
+        <v>1791</v>
+      </c>
+      <c r="E21" s="66">
+        <v>700</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="87"/>
+      <c r="B22" s="66">
+        <v>1841</v>
+      </c>
+      <c r="C22" s="71">
+        <v>1148.5</v>
+      </c>
+      <c r="D22" s="66">
+        <v>1655</v>
+      </c>
+      <c r="E22" s="66">
+        <v>700</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="87"/>
+      <c r="B23" s="66">
+        <v>1841</v>
+      </c>
+      <c r="C23" s="71">
+        <v>651.5</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="87"/>
+      <c r="B24" s="66">
+        <v>1772</v>
+      </c>
+      <c r="C24" s="66">
+        <v>651.5</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="87"/>
+      <c r="B25" s="66">
+        <v>1772</v>
+      </c>
+      <c r="C25" s="66">
+        <v>690</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="87"/>
+      <c r="B26" s="66">
+        <v>1665.3</v>
+      </c>
+      <c r="C26" s="66">
+        <v>690</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="66">
+        <v>1665.3</v>
+      </c>
+      <c r="C27" s="66">
+        <v>260</v>
+      </c>
+      <c r="D27" s="66">
+        <v>1655</v>
+      </c>
+      <c r="E27" s="66">
+        <v>250</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="70"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="85"/>
+      <c r="B28" s="66">
+        <v>1775</v>
+      </c>
+      <c r="C28" s="66">
+        <v>260</v>
+      </c>
+      <c r="D28" s="66">
+        <v>1804</v>
+      </c>
+      <c r="E28" s="66">
+        <v>250</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="85"/>
+      <c r="B29" s="66">
+        <v>1775</v>
+      </c>
+      <c r="C29" s="66">
+        <v>295</v>
+      </c>
+      <c r="D29" s="66">
+        <v>1804</v>
+      </c>
+      <c r="E29" s="66">
+        <v>-250</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="85"/>
+      <c r="B30" s="66">
+        <v>1854</v>
+      </c>
+      <c r="C30" s="66">
+        <v>295</v>
+      </c>
+      <c r="D30" s="66">
+        <v>1655</v>
+      </c>
+      <c r="E30" s="66">
+        <v>-250</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="70"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="85"/>
+      <c r="B31" s="66">
+        <v>1854</v>
+      </c>
+      <c r="C31" s="66">
+        <v>-295</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="70"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="85"/>
+      <c r="B32" s="66">
+        <v>1775</v>
+      </c>
+      <c r="C32" s="66">
+        <v>-295</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="70"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="85"/>
+      <c r="B33" s="66">
+        <v>1775</v>
+      </c>
+      <c r="C33" s="66">
+        <v>-260</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="70"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="85"/>
+      <c r="B34" s="66">
+        <v>1665.3</v>
+      </c>
+      <c r="C34" s="66">
+        <v>-260</v>
+      </c>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="70"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1665.3</v>
+      </c>
+      <c r="C35" s="66">
+        <v>-690</v>
+      </c>
+      <c r="D35" s="66">
+        <f>D19</f>
+        <v>1655</v>
+      </c>
+      <c r="E35" s="66">
+        <f>-E19</f>
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="67"/>
+      <c r="G35" s="70"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="85"/>
+      <c r="B36" s="66">
+        <v>1772</v>
+      </c>
+      <c r="C36" s="66">
+        <v>-690</v>
+      </c>
+      <c r="D36" s="66">
+        <f>D20</f>
+        <v>1791</v>
+      </c>
+      <c r="E36" s="66">
+        <f>-E20</f>
+        <v>-1100</v>
+      </c>
+      <c r="F36" s="67"/>
+      <c r="G36" s="70"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="85"/>
+      <c r="B37" s="66">
+        <v>1772</v>
+      </c>
+      <c r="C37" s="66">
+        <v>-651.5</v>
+      </c>
+      <c r="D37" s="66">
+        <f>D21</f>
+        <v>1791</v>
+      </c>
+      <c r="E37" s="66">
+        <f>-E21</f>
         <v>-700</v>
       </c>
-      <c r="D7" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-525</v>
-      </c>
-      <c r="D8" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-350</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.085</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-175</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="F37" s="67"/>
+      <c r="G37" s="70"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="85"/>
+      <c r="B38" s="66">
+        <v>1841</v>
+      </c>
+      <c r="C38" s="66">
+        <v>-651.5</v>
+      </c>
+      <c r="D38" s="66">
+        <f>D22</f>
+        <v>1655</v>
+      </c>
+      <c r="E38" s="66">
+        <f>-E22</f>
+        <v>-700</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="70"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="85"/>
+      <c r="B39" s="66">
+        <v>1841</v>
+      </c>
+      <c r="C39" s="66">
+        <v>-1148.5</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="70"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="85"/>
+      <c r="B40" s="66">
+        <v>1772</v>
+      </c>
+      <c r="C40" s="66">
+        <v>-1148.5</v>
+      </c>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="70"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="85"/>
+      <c r="B41" s="66">
+        <v>1772</v>
+      </c>
+      <c r="C41" s="66">
+        <v>-1110</v>
+      </c>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="70"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="85"/>
+      <c r="B42" s="66">
+        <v>1665.3</v>
+      </c>
+      <c r="C42" s="66">
+        <v>-1110</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="70"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="66">
+        <f>B3</f>
+        <v>757.5</v>
+      </c>
+      <c r="C43" s="66">
+        <f>-C3</f>
+        <v>-1645</v>
+      </c>
+      <c r="D43" s="66">
+        <f>D3</f>
+        <v>760</v>
+      </c>
+      <c r="E43" s="66">
+        <f>-E3</f>
+        <v>-1645</v>
+      </c>
+      <c r="F43" s="67">
+        <f>F3</f>
+        <v>723</v>
+      </c>
+      <c r="G43" s="68">
+        <f>-G4</f>
+        <v>-1770.5</v>
+      </c>
+      <c r="H43" s="69">
+        <f>H3</f>
+        <v>725</v>
+      </c>
+      <c r="I43" s="69">
+        <f>-I3</f>
+        <v>-1645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="87"/>
+      <c r="B44" s="66">
+        <f t="shared" ref="B44:B50" si="0">B4</f>
+        <v>757.5</v>
+      </c>
+      <c r="C44" s="66">
+        <f t="shared" ref="C44:C50" si="1">-C4</f>
+        <v>-1770</v>
+      </c>
+      <c r="D44" s="66">
+        <f>D4</f>
+        <v>760</v>
+      </c>
+      <c r="E44" s="66">
+        <f>-E4</f>
+        <v>-1790</v>
+      </c>
+      <c r="F44" s="67">
+        <f t="shared" ref="F44:F50" si="2">F4</f>
+        <v>723</v>
+      </c>
+      <c r="G44" s="68">
+        <f t="shared" ref="G44:G50" si="3">-G5</f>
+        <v>-1770.5</v>
+      </c>
+      <c r="H44" s="69">
+        <f t="shared" ref="H44:H46" si="4">H4</f>
+        <v>725</v>
+      </c>
+      <c r="I44" s="69">
+        <f t="shared" ref="I44:I46" si="5">-I4</f>
+        <v>-1794.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="87"/>
+      <c r="B45" s="66">
+        <f t="shared" si="0"/>
+        <v>735</v>
+      </c>
+      <c r="C45" s="66">
+        <f t="shared" si="1"/>
+        <v>-1770</v>
+      </c>
+      <c r="D45" s="66">
+        <f>D5</f>
+        <v>840</v>
+      </c>
+      <c r="E45" s="66">
+        <f>-E5</f>
+        <v>-1790</v>
+      </c>
+      <c r="F45" s="67">
+        <f t="shared" si="2"/>
+        <v>699</v>
+      </c>
+      <c r="G45" s="68">
+        <f t="shared" si="3"/>
+        <v>-1816.5</v>
+      </c>
+      <c r="H45" s="69">
+        <f t="shared" si="4"/>
+        <v>875</v>
+      </c>
+      <c r="I45" s="69">
+        <f t="shared" si="5"/>
+        <v>-1794.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="87"/>
+      <c r="B46" s="66">
+        <f t="shared" si="0"/>
+        <v>735</v>
+      </c>
+      <c r="C46" s="66">
+        <f t="shared" si="1"/>
+        <v>-1808</v>
+      </c>
+      <c r="D46" s="66">
+        <f>D6</f>
+        <v>840</v>
+      </c>
+      <c r="E46" s="66">
+        <f>-E6</f>
+        <v>-1645</v>
+      </c>
+      <c r="F46" s="67">
+        <f t="shared" si="2"/>
+        <v>699</v>
+      </c>
+      <c r="G46" s="68">
+        <f t="shared" si="3"/>
+        <v>-1816.5</v>
+      </c>
+      <c r="H46" s="69">
+        <f t="shared" si="4"/>
+        <v>875</v>
+      </c>
+      <c r="I46" s="69">
+        <f t="shared" si="5"/>
+        <v>-1645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="87"/>
+      <c r="B47" s="66">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+      <c r="C47" s="66">
+        <f t="shared" si="1"/>
+        <v>-1808</v>
+      </c>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="67">
+        <f t="shared" si="2"/>
+        <v>901</v>
+      </c>
+      <c r="G47" s="68">
+        <f t="shared" si="3"/>
+        <v>-1770.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="87"/>
+      <c r="B48" s="66">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+      <c r="C48" s="66">
+        <f t="shared" si="1"/>
+        <v>-1770</v>
+      </c>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="67">
+        <f t="shared" si="2"/>
+        <v>901</v>
+      </c>
+      <c r="G48" s="68">
+        <f t="shared" si="3"/>
+        <v>-1770.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="87"/>
+      <c r="B49" s="66">
+        <f t="shared" si="0"/>
+        <v>842.5</v>
+      </c>
+      <c r="C49" s="66">
+        <f t="shared" si="1"/>
+        <v>-1770</v>
+      </c>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67">
+        <f t="shared" si="2"/>
+        <v>877</v>
+      </c>
+      <c r="G49" s="68">
+        <f t="shared" si="3"/>
+        <v>-1645</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="87"/>
+      <c r="B50" s="66">
+        <f t="shared" si="0"/>
+        <v>842.5</v>
+      </c>
+      <c r="C50" s="66">
+        <f t="shared" si="1"/>
+        <v>-1645</v>
+      </c>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="67">
+        <f t="shared" si="2"/>
+        <v>877</v>
+      </c>
+      <c r="G50" s="68">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D11" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C12" s="3">
-        <v>175</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C13" s="3">
-        <v>350</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C14" s="3">
-        <v>525</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.085</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>700</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>875</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.085</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3">
-        <v>252.5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1050</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.085</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3">
-        <v>354.5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1226.5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3">
-        <v>354.5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1401.5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.085</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3">
-        <v>354.5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1576.5</v>
-      </c>
-      <c r="D20" s="4">
-        <v>-0.085</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5">
-        <v>460</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" ref="C21:C29" si="0">1645-2</f>
-        <v>1643</v>
-      </c>
-      <c r="D21" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5">
-        <v>505</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" si="0"/>
-        <v>1643</v>
-      </c>
-      <c r="D22" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="5">
-        <v>550</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="0"/>
-        <v>1643</v>
-      </c>
-      <c r="D23" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="5">
-        <v>595</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
-        <v>1643</v>
-      </c>
-      <c r="D24" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="5">
-        <v>640</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="0"/>
-        <v>1643</v>
-      </c>
-      <c r="D25" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="5">
-        <v>910</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="0"/>
-        <v>1643</v>
-      </c>
-      <c r="D26" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="5">
-        <v>955</v>
-      </c>
-      <c r="C27" s="5">
-        <f t="shared" si="0"/>
-        <v>1643</v>
-      </c>
-      <c r="D27" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" si="0"/>
-        <v>1643</v>
-      </c>
-      <c r="D28" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1045</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" si="0"/>
-        <v>1643</v>
-      </c>
-      <c r="D29" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="7">
-        <f>1418.2+30*COS(50/180*PI())</f>
-        <v>1437.4836282906</v>
-      </c>
-      <c r="C30" s="7">
-        <f>1340.1-30*SIN(50/180*PI())</f>
-        <v>1317.11866670643</v>
-      </c>
-      <c r="D30" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="9">
-        <v>1653</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1170</v>
-      </c>
-      <c r="D31" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="9">
-        <v>1653</v>
-      </c>
-      <c r="C32" s="9">
-        <v>650</v>
-      </c>
-      <c r="D32" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="9">
-        <v>1653</v>
-      </c>
-      <c r="C33" s="9">
-        <f>290+360/2</f>
-        <v>470</v>
-      </c>
-      <c r="D33" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="9">
-        <v>1653</v>
-      </c>
-      <c r="C34" s="9">
-        <f>258+32</f>
-        <v>290</v>
-      </c>
-      <c r="D34" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="9">
-        <v>1653</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-290</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="9">
-        <v>1653</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-470</v>
-      </c>
-      <c r="D36" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="9">
-        <v>1653</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-650</v>
-      </c>
-      <c r="D37" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="9">
-        <v>1653</v>
-      </c>
-      <c r="C38" s="9">
-        <v>-1170</v>
-      </c>
-      <c r="D38" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="7">
-        <f>1418.2+30*COS(50/180*PI())</f>
-        <v>1437.4836282906</v>
-      </c>
-      <c r="C39" s="7">
-        <f>-(1340.1-30*SIN(50/180*PI()))</f>
-        <v>-1317.11866670643</v>
-      </c>
-      <c r="D39" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="10">
-        <v>1045</v>
-      </c>
-      <c r="C40" s="10">
-        <v>-1643</v>
-      </c>
-      <c r="D40" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C41" s="10">
-        <v>-1643</v>
-      </c>
-      <c r="D41" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="10">
-        <v>955</v>
-      </c>
-      <c r="C42" s="10">
-        <v>-1643</v>
-      </c>
-      <c r="D42" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="10">
-        <v>910</v>
-      </c>
-      <c r="C43" s="10">
-        <v>-1643</v>
-      </c>
-      <c r="D43" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="10">
-        <v>640</v>
-      </c>
-      <c r="C44" s="10">
-        <v>-1643</v>
-      </c>
-      <c r="D44" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="10">
-        <v>595</v>
-      </c>
-      <c r="C45" s="10">
-        <v>-1643</v>
-      </c>
-      <c r="D45" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="10">
-        <v>550</v>
-      </c>
-      <c r="C46" s="10">
-        <v>-1643</v>
-      </c>
-      <c r="D46" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="10">
-        <v>505</v>
-      </c>
-      <c r="C47" s="10">
-        <v>-1643</v>
-      </c>
-      <c r="D47" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="10">
-        <v>460</v>
-      </c>
-      <c r="C48" s="10">
-        <v>-1643</v>
-      </c>
-      <c r="D48" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <mergeCells count="9">
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A34"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
+++ b/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
@@ -8128,7 +8128,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8193,7 +8193,7 @@
         <v>0.065</v>
       </c>
       <c r="E2" s="33">
-        <v>0.3653</v>
+        <v>3.099</v>
       </c>
       <c r="F2" s="31">
         <v>4</v>

--- a/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
+++ b/diagnostics/emd/data/EXL50UProbeFluxLoop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="flux" sheetId="1" r:id="rId1"/>
@@ -4167,8 +4167,8 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="20" customHeight="1"/>
@@ -6814,8 +6814,8 @@
   <sheetPr/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="20" customHeight="1"/>
@@ -7424,7 +7424,7 @@
         <v>1521.32301438475</v>
       </c>
       <c r="D23" s="59">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E23" s="59">
         <v>55</v>
@@ -7450,7 +7450,7 @@
         <v>1383.43501462333</v>
       </c>
       <c r="D24" s="59">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E24" s="59">
         <v>55</v>
@@ -7476,7 +7476,7 @@
         <v>1245.54701486191</v>
       </c>
       <c r="D25" s="59">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E25" s="59">
         <v>55</v>
@@ -7814,7 +7814,7 @@
         <v>-1243.35056971497</v>
       </c>
       <c r="D38" s="59">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E38" s="59">
         <v>55</v>
@@ -7840,7 +7840,7 @@
         <v>-1381.23856947639</v>
       </c>
       <c r="D39" s="59">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E39" s="59">
         <v>55</v>
@@ -7866,7 +7866,7 @@
         <v>-1519.1265692378</v>
       </c>
       <c r="D40" s="59">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E40" s="59">
         <v>55</v>
@@ -8127,7 +8127,7 @@
   <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
